--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_self_sum.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Parkinson_withoutdupl_75_self_sum.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5663 +394,5075 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0003697154568418387</v>
+        <v>0.0003702024961581626</v>
       </c>
       <c r="C2">
-        <v>0.0003652739620461478</v>
+        <v>0.000441444389451278</v>
       </c>
       <c r="D2">
-        <v>0.0003582578569928632</v>
+        <v>0.0003421888612693073</v>
       </c>
       <c r="E2">
-        <v>0.0004351237243852181</v>
+        <v>0.0004255384708669428</v>
       </c>
       <c r="F2">
-        <v>0.0004328032953095878</v>
+        <v>0.0004190537365700272</v>
       </c>
       <c r="G2">
-        <v>0.0006959669609253331</v>
+        <v>0.0008031566226323104</v>
       </c>
       <c r="H2">
-        <v>0.0003488237611753467</v>
-      </c>
-      <c r="I2">
-        <v>0.00042908307914858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.000411799206485961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0005852296251174036</v>
+        <v>0.0007217761422686488</v>
       </c>
       <c r="C3">
-        <v>0.0005366785322484063</v>
+        <v>0.0006489231200726694</v>
       </c>
       <c r="D3">
-        <v>0.0009814736662191572</v>
+        <v>0.0009829976598522958</v>
       </c>
       <c r="E3">
-        <v>0.001015720563781637</v>
+        <v>0.001004437942948786</v>
       </c>
       <c r="F3">
-        <v>0.0008485431659854174</v>
+        <v>0.0008645182232295307</v>
       </c>
       <c r="G3">
-        <v>0.0005391828863520918</v>
+        <v>0.0006723617923389386</v>
       </c>
       <c r="H3">
-        <v>0.0007075730899756347</v>
-      </c>
-      <c r="I3">
-        <v>0.0005916050630890984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0008696326833591626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001136019887780652</v>
+        <v>0.001367876918606334</v>
       </c>
       <c r="C4">
-        <v>0.0007943192388872737</v>
+        <v>0.0009397555033432078</v>
       </c>
       <c r="D4">
-        <v>0.001201263817063722</v>
+        <v>0.001191902339765437</v>
       </c>
       <c r="E4">
-        <v>0.001246209418936267</v>
+        <v>0.001239820279369805</v>
       </c>
       <c r="F4">
-        <v>0.001129651020192352</v>
+        <v>0.001108816871286306</v>
       </c>
       <c r="G4">
-        <v>0.000753244868620125</v>
+        <v>0.0008758737249462262</v>
       </c>
       <c r="H4">
-        <v>0.0008936904788524299</v>
-      </c>
-      <c r="I4">
-        <v>0.0008754744816029419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.001105800041689328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.001056027871173462</v>
+        <v>0.001283947968460056</v>
       </c>
       <c r="C5">
-        <v>0.0007008601911548528</v>
+        <v>0.0008310313151452227</v>
       </c>
       <c r="D5">
-        <v>0.001110668656930245</v>
+        <v>0.001099385673700142</v>
       </c>
       <c r="E5">
-        <v>0.001148951277272398</v>
+        <v>0.00114027264280654</v>
       </c>
       <c r="F5">
-        <v>0.001091341752345573</v>
+        <v>0.001078336748558664</v>
       </c>
       <c r="G5">
-        <v>0.0006338855735611697</v>
+        <v>0.0007597895115896909</v>
       </c>
       <c r="H5">
-        <v>0.0007926202361982631</v>
-      </c>
-      <c r="I5">
-        <v>0.0007756241634597492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.0009883992037038798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00106041897705701</v>
+        <v>0.001318354012365749</v>
       </c>
       <c r="C6">
-        <v>0.001355466472062664</v>
+        <v>0.001647177253281682</v>
       </c>
       <c r="D6">
-        <v>0.001858706678558415</v>
+        <v>0.001875722373843412</v>
       </c>
       <c r="E6">
-        <v>0.0017453443046619</v>
+        <v>0.001747814232825468</v>
       </c>
       <c r="F6">
-        <v>0.001553431686649657</v>
+        <v>0.001591609248802898</v>
       </c>
       <c r="G6">
-        <v>0.0009367174478873555</v>
+        <v>0.001163062207856031</v>
       </c>
       <c r="H6">
-        <v>0.0009842245051973101</v>
-      </c>
-      <c r="I6">
-        <v>0.001018959484109689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.001225058974523618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0007781915399320558</v>
+        <v>0.0009322157791599496</v>
       </c>
       <c r="C7">
-        <v>0.0006221155834415851</v>
+        <v>0.0007649642454777053</v>
       </c>
       <c r="D7">
-        <v>0.000978107579961307</v>
+        <v>0.000977416835412208</v>
       </c>
       <c r="E7">
-        <v>0.0009142562093940323</v>
+        <v>0.0009077027990617724</v>
       </c>
       <c r="F7">
-        <v>0.0008444512967296248</v>
+        <v>0.0008443479526377781</v>
       </c>
       <c r="G7">
-        <v>0.0005910247537290436</v>
+        <v>0.0006764711538705448</v>
       </c>
       <c r="H7">
-        <v>0.00068773240602516</v>
-      </c>
-      <c r="I7">
-        <v>0.0006555099141446095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.0008330828775097454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.638843721959047E-05</v>
+        <v>0.0001142342055720465</v>
       </c>
       <c r="C8">
-        <v>0.0001050755936209987</v>
+        <v>0.0001188161390629735</v>
       </c>
       <c r="D8">
-        <v>0.0001087195561522023</v>
+        <v>0.0001186740303723817</v>
       </c>
       <c r="E8">
-        <v>0.0001155917707383598</v>
+        <v>0.0001228931425734289</v>
       </c>
       <c r="F8">
-        <v>0.000211125550463338</v>
+        <v>0.0002138135072545055</v>
       </c>
       <c r="G8">
-        <v>0.0002389300005177951</v>
+        <v>0.000237332706007841</v>
       </c>
       <c r="H8">
-        <v>0.0001784149283822102</v>
-      </c>
-      <c r="I8">
-        <v>0.0001384023411519961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.0002162983240021611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0003866228736334712</v>
+        <v>0.0004762236695624717</v>
       </c>
       <c r="C9">
-        <v>0.0002731681165691965</v>
+        <v>0.0002914223697068531</v>
       </c>
       <c r="D9">
-        <v>0.0002815631272675048</v>
+        <v>0.0002651825524853832</v>
       </c>
       <c r="E9">
-        <v>0.0002819131851958584</v>
+        <v>0.0002732372889896647</v>
       </c>
       <c r="F9">
-        <v>0.0005228719162452233</v>
+        <v>0.0005146122914607976</v>
       </c>
       <c r="G9">
-        <v>0.0003188161842306333</v>
+        <v>0.0003009120199396052</v>
       </c>
       <c r="H9">
-        <v>0.0003182978829663674</v>
-      </c>
-      <c r="I9">
-        <v>0.0003814268120976089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.0003746970760851165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0003785905877270554</v>
+        <v>0.0004610489637511235</v>
       </c>
       <c r="C10">
-        <v>0.0004487042901329913</v>
+        <v>0.0005164257100778675</v>
       </c>
       <c r="D10">
-        <v>0.0004945073577888466</v>
+        <v>0.0005289108554244547</v>
       </c>
       <c r="E10">
-        <v>0.0005648942042727814</v>
+        <v>0.0005961919002707373</v>
       </c>
       <c r="F10">
-        <v>0.0007007752918194635</v>
+        <v>0.0007302182442353458</v>
       </c>
       <c r="G10">
-        <v>0.0004170094747688828</v>
+        <v>0.0004897301774661557</v>
       </c>
       <c r="H10">
-        <v>0.0005022963354350953</v>
-      </c>
-      <c r="I10">
-        <v>0.000384064890531584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.0005715110626510171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0002940668799286502</v>
+        <v>0.0003136621024356442</v>
       </c>
       <c r="C11">
-        <v>0.0003789327174904924</v>
+        <v>0.0004386065927672325</v>
       </c>
       <c r="D11">
-        <v>0.0002442856501209995</v>
+        <v>0.0002735500619200249</v>
       </c>
       <c r="E11">
-        <v>0.0002496027103514405</v>
+        <v>0.000274994657534077</v>
       </c>
       <c r="F11">
-        <v>0.0007145430121418651</v>
+        <v>0.0007455840795838505</v>
       </c>
       <c r="G11">
-        <v>0.0002976370668213009</v>
+        <v>0.0003519100012315453</v>
       </c>
       <c r="H11">
-        <v>0.0002546352652930818</v>
-      </c>
-      <c r="I11">
-        <v>0.0002560004640179826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.0003172983178348233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0002955269445731615</v>
+        <v>0.0003431228090049051</v>
       </c>
       <c r="C12">
-        <v>0.0002755475614834506</v>
+        <v>0.0003280630270701609</v>
       </c>
       <c r="D12">
-        <v>0.0002723141249218908</v>
+        <v>0.0003159175481045709</v>
       </c>
       <c r="E12">
-        <v>0.0003234366412527875</v>
+        <v>0.0003947111788665121</v>
       </c>
       <c r="F12">
-        <v>0.001528868056030099</v>
+        <v>0.00162016480776126</v>
       </c>
       <c r="G12">
-        <v>0.0002488972173924702</v>
+        <v>0.0002845689305389273</v>
       </c>
       <c r="H12">
-        <v>0.000312928627791392</v>
-      </c>
-      <c r="I12">
-        <v>0.0003097706051955963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.0003893076855339521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0004702832500435065</v>
+        <v>0.0005310321532669099</v>
       </c>
       <c r="C13">
-        <v>0.0003122539125567257</v>
+        <v>0.0003589374287823092</v>
       </c>
       <c r="D13">
-        <v>0.0003676675291850684</v>
+        <v>0.0004067535343137547</v>
       </c>
       <c r="E13">
-        <v>0.0003514384310621815</v>
+        <v>0.0003933631713431003</v>
       </c>
       <c r="F13">
-        <v>0.001038138223978778</v>
+        <v>0.00111738165113141</v>
       </c>
       <c r="G13">
-        <v>0.0002835202494150714</v>
+        <v>0.0003339588994578965</v>
       </c>
       <c r="H13">
-        <v>0.0002846197853962846</v>
-      </c>
-      <c r="I13">
-        <v>0.0003077719578203837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.0003503724120604124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.0005629425469889423</v>
+        <v>0.0006787631295277241</v>
       </c>
       <c r="C14">
-        <v>0.000520082541733692</v>
+        <v>0.0006351734886431269</v>
       </c>
       <c r="D14">
-        <v>0.0004665434408682533</v>
+        <v>0.0004833443900417462</v>
       </c>
       <c r="E14">
-        <v>0.0005705091720644093</v>
+        <v>0.0005872990700437149</v>
       </c>
       <c r="F14">
-        <v>0.001185160289829418</v>
+        <v>0.001216290386146866</v>
       </c>
       <c r="G14">
-        <v>0.0004245812555208749</v>
+        <v>0.0004592073732847527</v>
       </c>
       <c r="H14">
-        <v>0.0004493722554086049</v>
-      </c>
-      <c r="I14">
-        <v>0.0004935608481154458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0005359201271173266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0004109931624460308</v>
+        <v>0.0005041744577200414</v>
       </c>
       <c r="C15">
-        <v>0.0003947317312977739</v>
+        <v>0.0004838254759694259</v>
       </c>
       <c r="D15">
-        <v>0.0007859307648071717</v>
+        <v>0.0008001038436716342</v>
       </c>
       <c r="E15">
-        <v>0.0009217746778976003</v>
+        <v>0.0009413032515368813</v>
       </c>
       <c r="F15">
-        <v>0.0003832215881306584</v>
+        <v>0.0004243881472955606</v>
       </c>
       <c r="G15">
-        <v>0.0003935169645188888</v>
+        <v>0.0004472765242131351</v>
       </c>
       <c r="H15">
-        <v>0.0003846603716919672</v>
-      </c>
-      <c r="I15">
-        <v>0.0004116148779859644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.0004681714469155969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0001987483449847218</v>
+        <v>0.0002399317426026938</v>
       </c>
       <c r="C16">
-        <v>0.0002020666887524205</v>
+        <v>0.0002391769700386486</v>
       </c>
       <c r="D16">
-        <v>0.0002691203660236606</v>
+        <v>0.000258873184838379</v>
       </c>
       <c r="E16">
-        <v>0.0002688869414073114</v>
+        <v>0.0002593206366263335</v>
       </c>
       <c r="F16">
-        <v>0.0003961127994141833</v>
+        <v>0.0003991758353827216</v>
       </c>
       <c r="G16">
-        <v>0.0002015383555078303</v>
+        <v>0.0002011589719447701</v>
       </c>
       <c r="H16">
-        <v>0.000220025494288063</v>
-      </c>
-      <c r="I16">
-        <v>0.0002649248401130568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.0002623631930637025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0004691027635229126</v>
+        <v>0.0005368677043718081</v>
       </c>
       <c r="C17">
-        <v>0.0003872240800642306</v>
+        <v>0.0004516161695806979</v>
       </c>
       <c r="D17">
-        <v>0.0008494836411652105</v>
+        <v>0.0008985261340679326</v>
       </c>
       <c r="E17">
-        <v>0.0008114009773488965</v>
+        <v>0.0008625940927196504</v>
       </c>
       <c r="F17">
-        <v>0.000339918995233339</v>
+        <v>0.0004095994373129911</v>
       </c>
       <c r="G17">
-        <v>0.0003468516102251279</v>
+        <v>0.0004318578839334688</v>
       </c>
       <c r="H17">
-        <v>0.0003987793923796434</v>
-      </c>
-      <c r="I17">
-        <v>0.0003506584197397254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.0004643258356823508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.002195835854093927</v>
+        <v>0.002432733036938031</v>
       </c>
       <c r="C18">
-        <v>0.002165980725850772</v>
+        <v>0.00240563553546559</v>
       </c>
       <c r="D18">
-        <v>0.003822547988266545</v>
+        <v>0.004252150303606933</v>
       </c>
       <c r="E18">
-        <v>0.005095198976128823</v>
+        <v>0.005593350073093284</v>
       </c>
       <c r="F18">
-        <v>0.002795743079700903</v>
+        <v>0.003288491354008481</v>
       </c>
       <c r="G18">
-        <v>0.002278170788533901</v>
+        <v>0.002564249170121749</v>
       </c>
       <c r="H18">
-        <v>0.002229523853130163</v>
-      </c>
-      <c r="I18">
-        <v>0.0021346023080435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.002468620919258143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0003465744972534801</v>
+        <v>0.0004050839824104288</v>
       </c>
       <c r="C19">
-        <v>0.0003863810715022055</v>
+        <v>0.0004768925429796256</v>
       </c>
       <c r="D19">
-        <v>0.0003550862008037993</v>
+        <v>0.0003888001969377722</v>
       </c>
       <c r="E19">
-        <v>0.0003978895726381975</v>
+        <v>0.0004283129594428424</v>
       </c>
       <c r="F19">
-        <v>0.001275368588754603</v>
+        <v>0.001325819596248047</v>
       </c>
       <c r="G19">
-        <v>0.0002793064983206443</v>
+        <v>0.0003451889956024857</v>
       </c>
       <c r="H19">
-        <v>0.0003621185376761309</v>
-      </c>
-      <c r="I19">
-        <v>0.0003412267685715914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.0004476039670615901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.000548627455987416</v>
+        <v>0.0006761253664580149</v>
       </c>
       <c r="C20">
-        <v>0.0005067227016784314</v>
+        <v>0.0005978191257476594</v>
       </c>
       <c r="D20">
-        <v>0.0006735763719913658</v>
+        <v>0.0006975160036707651</v>
       </c>
       <c r="E20">
-        <v>0.0007368654024198211</v>
+        <v>0.0007551174838412829</v>
       </c>
       <c r="F20">
-        <v>0.001178308434801931</v>
+        <v>0.00120139278455884</v>
       </c>
       <c r="G20">
-        <v>0.0004677376356683504</v>
+        <v>0.0005832692726526576</v>
       </c>
       <c r="H20">
-        <v>0.0007244697859049846</v>
-      </c>
-      <c r="I20">
-        <v>0.0005213796846371588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.0008694944201272214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.0005104758229965467</v>
+        <v>0.0005659480515784541</v>
       </c>
       <c r="C21">
-        <v>0.0005047483955131577</v>
+        <v>0.0005829499243463648</v>
       </c>
       <c r="D21">
-        <v>0.0006098915581954707</v>
+        <v>0.0006599582625939929</v>
       </c>
       <c r="E21">
-        <v>0.0005782252872297236</v>
+        <v>0.0006259125167339258</v>
       </c>
       <c r="F21">
-        <v>0.0008916783377217282</v>
+        <v>0.0009775838626766115</v>
       </c>
       <c r="G21">
-        <v>0.0005762874906893222</v>
+        <v>0.0006304014116674725</v>
       </c>
       <c r="H21">
-        <v>0.0004166757605494675</v>
-      </c>
-      <c r="I21">
-        <v>0.0004457330395818244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0004991475997488559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0006240676814280864</v>
+        <v>0.0007043532200534938</v>
       </c>
       <c r="C22">
-        <v>0.0003397985307209718</v>
+        <v>0.0003914346798307872</v>
       </c>
       <c r="D22">
-        <v>0.0003998605017812601</v>
+        <v>0.0004041561051044592</v>
       </c>
       <c r="E22">
-        <v>0.0003750918178366036</v>
+        <v>0.0003839784015981663</v>
       </c>
       <c r="F22">
-        <v>0.0005346304398146672</v>
+        <v>0.0005478298695694487</v>
       </c>
       <c r="G22">
-        <v>0.0003344704833923641</v>
+        <v>0.0003559783751176925</v>
       </c>
       <c r="H22">
-        <v>0.0005573560227123797</v>
-      </c>
-      <c r="I22">
-        <v>0.0004182313815109125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.0006378460384063273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.0003676937071308354</v>
+        <v>0.0003843397873973484</v>
       </c>
       <c r="C23">
-        <v>0.0001656273032310457</v>
+        <v>0.0002065364530108805</v>
       </c>
       <c r="D23">
-        <v>0.0001555179001321579</v>
+        <v>0.0001804916472895239</v>
       </c>
       <c r="E23">
-        <v>0.0002730208910489934</v>
+        <v>0.0002883581549357314</v>
       </c>
       <c r="F23">
-        <v>0.0001806448294093329</v>
+        <v>0.0002187841161705311</v>
       </c>
       <c r="G23">
-        <v>0.0003452615882918715</v>
+        <v>0.0003829172724095189</v>
       </c>
       <c r="H23">
-        <v>0.0001525753504655559</v>
-      </c>
-      <c r="I23">
-        <v>0.0001641951188644205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.0001793346990354961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0004243020532306566</v>
+        <v>0.0004837593334717526</v>
       </c>
       <c r="C24">
-        <v>0.000209070010508408</v>
+        <v>0.0002582765935522606</v>
       </c>
       <c r="D24">
-        <v>0.0002748886201757451</v>
+        <v>0.0002864787624775759</v>
       </c>
       <c r="E24">
-        <v>0.0002172254300686845</v>
+        <v>0.000231039710220533</v>
       </c>
       <c r="F24">
-        <v>0.0003854903091347545</v>
+        <v>0.0003939628624098064</v>
       </c>
       <c r="G24">
-        <v>0.0001863427294652763</v>
+        <v>0.0002074359097515265</v>
       </c>
       <c r="H24">
-        <v>0.0002161477802913878</v>
-      </c>
-      <c r="I24">
-        <v>0.0002090736257115844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.0002644337213166396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.0003916817601284196</v>
+        <v>0.0004096970633151818</v>
       </c>
       <c r="C25">
-        <v>0.0003126804457881514</v>
+        <v>0.0003790113004456147</v>
       </c>
       <c r="D25">
-        <v>0.0004842995245573996</v>
+        <v>0.0005038042458960029</v>
       </c>
       <c r="E25">
-        <v>0.0004237271890543083</v>
+        <v>0.0004435203405672279</v>
       </c>
       <c r="F25">
-        <v>0.0003753001140651379</v>
+        <v>0.0004359087473565962</v>
       </c>
       <c r="G25">
-        <v>0.0004738641885385036</v>
+        <v>0.0005316998134438223</v>
       </c>
       <c r="H25">
-        <v>0.0002884122920598562</v>
-      </c>
-      <c r="I25">
-        <v>0.0003008166753714493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.0003504585748738096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7.371256983678212E-05</v>
+        <v>8.338354476016043E-05</v>
       </c>
       <c r="C26">
-        <v>9.627327825109455E-05</v>
+        <v>9.968276454976894E-05</v>
       </c>
       <c r="D26">
-        <v>0.0001554284197078954</v>
+        <v>0.0001593052593382962</v>
       </c>
       <c r="E26">
-        <v>9.472416629150513E-05</v>
+        <v>0.0001011790641107156</v>
       </c>
       <c r="F26">
-        <v>0.0001294495367501941</v>
+        <v>0.0001463239840082746</v>
       </c>
       <c r="G26">
-        <v>0.0002232122132958043</v>
+        <v>0.0002448825214183609</v>
       </c>
       <c r="H26">
-        <v>9.709152391081056E-05</v>
-      </c>
-      <c r="I26">
-        <v>0.0001117738524539363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.0001106203983238113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0008223120741084044</v>
+        <v>0.0009346273193752274</v>
       </c>
       <c r="C27">
-        <v>0.0008528504372456743</v>
+        <v>0.001047332628294689</v>
       </c>
       <c r="D27">
-        <v>0.001344260551532627</v>
+        <v>0.001384936739561111</v>
       </c>
       <c r="E27">
-        <v>0.001572414875397589</v>
+        <v>0.001607837643590991</v>
       </c>
       <c r="F27">
-        <v>0.0008882378513789839</v>
+        <v>0.0009410502053104383</v>
       </c>
       <c r="G27">
-        <v>0.001116243797025494</v>
+        <v>0.001306369991378841</v>
       </c>
       <c r="H27">
-        <v>0.0007773921986684573</v>
-      </c>
-      <c r="I27">
-        <v>0.0008112040034470285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.0009613209767220995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0002168106103496559</v>
+        <v>0.000258294047949836</v>
       </c>
       <c r="C28">
-        <v>0.0002429683924214423</v>
+        <v>0.0002956047018576148</v>
       </c>
       <c r="D28">
-        <v>0.0005263596067867003</v>
+        <v>0.0005407452042595283</v>
       </c>
       <c r="E28">
-        <v>0.0006664929428530029</v>
+        <v>0.0006810093766197934</v>
       </c>
       <c r="F28">
-        <v>0.0001986923730064291</v>
+        <v>0.0002444977504918193</v>
       </c>
       <c r="G28">
-        <v>0.0002551449620759071</v>
+        <v>0.0002849259256173032</v>
       </c>
       <c r="H28">
-        <v>0.0002329416073040349</v>
-      </c>
-      <c r="I28">
-        <v>0.0002610120158949656</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.00028669586457671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.0002837177008797257</v>
+        <v>0.0003295599996943244</v>
       </c>
       <c r="C29">
-        <v>0.0003535248501830231</v>
+        <v>0.0004282822387858617</v>
       </c>
       <c r="D29">
-        <v>0.0006885191445663801</v>
+        <v>0.0006908862958454752</v>
       </c>
       <c r="E29">
-        <v>0.0006729881019391529</v>
+        <v>0.0006764259863365207</v>
       </c>
       <c r="F29">
-        <v>0.0002943796303570221</v>
+        <v>0.0003241854694677601</v>
       </c>
       <c r="G29">
-        <v>0.0003217954189733175</v>
+        <v>0.0003565577907841981</v>
       </c>
       <c r="H29">
-        <v>0.0003410157627060078</v>
-      </c>
-      <c r="I29">
-        <v>0.0003648160742400733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0004252465790021593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0004786288894221368</v>
+        <v>0.0005920111460927811</v>
       </c>
       <c r="C30">
-        <v>0.0004406077526914218</v>
+        <v>0.0005470856814599899</v>
       </c>
       <c r="D30">
-        <v>0.001147571036857495</v>
+        <v>0.001175648980204794</v>
       </c>
       <c r="E30">
-        <v>0.001142480944838444</v>
+        <v>0.001171030588663996</v>
       </c>
       <c r="F30">
-        <v>0.0004349448401772325</v>
+        <v>0.0005377948265860998</v>
       </c>
       <c r="G30">
-        <v>0.0004599037278620003</v>
+        <v>0.00052229418797547</v>
       </c>
       <c r="H30">
-        <v>0.0004454676794706445</v>
-      </c>
-      <c r="I30">
-        <v>0.0004608495286762239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.0005528306882486147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.000120695435625086</v>
+        <v>0.0001203823498908008</v>
       </c>
       <c r="C31">
-        <v>0.0001493059236632958</v>
+        <v>0.0001851364449268179</v>
       </c>
       <c r="D31">
-        <v>0.0001952434302370227</v>
+        <v>0.0001891465418243258</v>
       </c>
       <c r="E31">
-        <v>0.0001899357915265191</v>
+        <v>0.0001821507954687387</v>
       </c>
       <c r="F31">
-        <v>8.594242927153557E-05</v>
+        <v>9.277133442277992E-05</v>
       </c>
       <c r="G31">
-        <v>0.0001243986682483231</v>
+        <v>0.0001322439747292157</v>
       </c>
       <c r="H31">
-        <v>0.0002361781104862595</v>
-      </c>
-      <c r="I31">
-        <v>0.0001554674621473182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.0002781256100361576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0003406543743422567</v>
+        <v>0.0003523266908024802</v>
       </c>
       <c r="C32">
-        <v>0.0003356892407434037</v>
+        <v>0.0003943059078358029</v>
       </c>
       <c r="D32">
-        <v>0.0002804781460108025</v>
+        <v>0.0003003339148179968</v>
       </c>
       <c r="E32">
-        <v>0.0002844878424797311</v>
+        <v>0.0003093595666719977</v>
       </c>
       <c r="F32">
-        <v>0.0003817835960556059</v>
+        <v>0.0003957057884530286</v>
       </c>
       <c r="G32">
-        <v>0.0005172301393817473</v>
+        <v>0.0005718382675625193</v>
       </c>
       <c r="H32">
-        <v>0.000373302651886102</v>
-      </c>
-      <c r="I32">
-        <v>0.0003100533330542211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.0004239954481101257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.0005155026269746802</v>
+        <v>0.0005370042724206576</v>
       </c>
       <c r="C33">
-        <v>0.0005475597443215013</v>
+        <v>0.0006514460149692931</v>
       </c>
       <c r="D33">
-        <v>0.0005890370616881135</v>
+        <v>0.0006030545995344956</v>
       </c>
       <c r="E33">
-        <v>0.0005830169881041466</v>
+        <v>0.0005976879170582112</v>
       </c>
       <c r="F33">
-        <v>0.0005083863852407613</v>
+        <v>0.0005259032684566598</v>
       </c>
       <c r="G33">
-        <v>0.0006838393740686558</v>
+        <v>0.0007785647563708583</v>
       </c>
       <c r="H33">
-        <v>0.0006650861374273832</v>
-      </c>
-      <c r="I33">
-        <v>0.0005164647105503816</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.0007655818800136568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0004388787090039361</v>
+        <v>0.0004529137144680821</v>
       </c>
       <c r="C34">
-        <v>0.0005120853792307657</v>
+        <v>0.0005952245658551468</v>
       </c>
       <c r="D34">
-        <v>0.0004970753537053537</v>
+        <v>0.0005102412417361153</v>
       </c>
       <c r="E34">
-        <v>0.000450191588500939</v>
+        <v>0.0004698172508174348</v>
       </c>
       <c r="F34">
-        <v>0.0004382938865910083</v>
+        <v>0.0004552134226003911</v>
       </c>
       <c r="G34">
-        <v>0.0007520824623608248</v>
+        <v>0.0008310242811868539</v>
       </c>
       <c r="H34">
-        <v>0.0004811752027816634</v>
-      </c>
-      <c r="I34">
-        <v>0.0004614446061389903</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.0005616771582494865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.0008912595696575139</v>
+        <v>0.0009393570362150364</v>
       </c>
       <c r="C35">
-        <v>0.0009864695474110393</v>
+        <v>0.001173595297089341</v>
       </c>
       <c r="D35">
-        <v>0.001022774000876273</v>
+        <v>0.001056921376656711</v>
       </c>
       <c r="E35">
-        <v>0.001190512832626858</v>
+        <v>0.0012361676466343</v>
       </c>
       <c r="F35">
-        <v>0.0009081857354229652</v>
+        <v>0.0009347206977489108</v>
       </c>
       <c r="G35">
-        <v>0.001049844576293956</v>
+        <v>0.001239021689482002</v>
       </c>
       <c r="H35">
-        <v>0.001228435446119045</v>
-      </c>
-      <c r="I35">
-        <v>0.000857215045969038</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.001426316502913526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.00100571012768272</v>
+        <v>0.001053706083257024</v>
       </c>
       <c r="C36">
-        <v>0.001172330955155414</v>
+        <v>0.001390048754904342</v>
       </c>
       <c r="D36">
-        <v>0.001154066954103318</v>
+        <v>0.001197240378000677</v>
       </c>
       <c r="E36">
-        <v>0.001320520238078955</v>
+        <v>0.001376245525817527</v>
       </c>
       <c r="F36">
-        <v>0.001000652323375566</v>
+        <v>0.001015304373384603</v>
       </c>
       <c r="G36">
-        <v>0.001099061548252958</v>
+        <v>0.001303529711976444</v>
       </c>
       <c r="H36">
-        <v>0.001326856159754763</v>
-      </c>
-      <c r="I36">
-        <v>0.0009626386142445259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.001538305674057426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.000588699179757988</v>
+        <v>0.0006233604726994306</v>
       </c>
       <c r="C37">
-        <v>0.0006633591495920498</v>
+        <v>0.0007896216293204264</v>
       </c>
       <c r="D37">
-        <v>0.000692200274449399</v>
+        <v>0.0007060753851019977</v>
       </c>
       <c r="E37">
-        <v>0.0008196344292731505</v>
+        <v>0.0008385249657000304</v>
       </c>
       <c r="F37">
-        <v>0.0005872840632313027</v>
+        <v>0.0006160895962709505</v>
       </c>
       <c r="G37">
-        <v>0.0008203889965738299</v>
+        <v>0.0009401840777068356</v>
       </c>
       <c r="H37">
-        <v>0.0007034784463165205</v>
-      </c>
-      <c r="I37">
-        <v>0.0005966027848583724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.0008213797032920182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.0002019785617519877</v>
+        <v>0.0002222580558723227</v>
       </c>
       <c r="C38">
-        <v>0.000260369453736363</v>
+        <v>0.0003132675588655916</v>
       </c>
       <c r="D38">
-        <v>0.0004340725784005911</v>
+        <v>0.0004399730589857652</v>
       </c>
       <c r="E38">
-        <v>0.000396803071786249</v>
+        <v>0.0004030524244229594</v>
       </c>
       <c r="F38">
-        <v>0.0001850410715971769</v>
+        <v>0.0002080586658463183</v>
       </c>
       <c r="G38">
-        <v>0.0001757791730034671</v>
+        <v>0.0002096979236314645</v>
       </c>
       <c r="H38">
-        <v>0.000248393982788431</v>
-      </c>
-      <c r="I38">
-        <v>0.0002188186694334717</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0003031738384816508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.0003432776691314699</v>
+        <v>0.0004264474924321768</v>
       </c>
       <c r="C39">
-        <v>0.000397103177321585</v>
+        <v>0.0004814968434714052</v>
       </c>
       <c r="D39">
-        <v>0.000771585352731823</v>
+        <v>0.0007865504785078876</v>
       </c>
       <c r="E39">
-        <v>0.0007498759371157522</v>
+        <v>0.0007665392057301537</v>
       </c>
       <c r="F39">
-        <v>0.0003351865129640348</v>
+        <v>0.0003798534496980394</v>
       </c>
       <c r="G39">
-        <v>0.0003423334668944372</v>
+        <v>0.0003847350863206241</v>
       </c>
       <c r="H39">
-        <v>0.0003533198690375718</v>
-      </c>
-      <c r="I39">
-        <v>0.0003545621713258229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.0004382263346451998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.0002737791558628655</v>
+        <v>0.0003179005962090512</v>
       </c>
       <c r="C40">
-        <v>0.0002501636624835946</v>
+        <v>0.0002936174228200602</v>
       </c>
       <c r="D40">
-        <v>0.0002462377271926802</v>
+        <v>0.0002492720522445018</v>
       </c>
       <c r="E40">
-        <v>0.0002336021259951349</v>
+        <v>0.0002374559873375895</v>
       </c>
       <c r="F40">
-        <v>0.0001630578959863851</v>
+        <v>0.0002026783835624426</v>
       </c>
       <c r="G40">
-        <v>0.0002910951469525134</v>
+        <v>0.0002979198712061725</v>
       </c>
       <c r="H40">
-        <v>0.0002047666071332308</v>
-      </c>
-      <c r="I40">
-        <v>0.0002015464457389664</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.0002232245085870117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0002770101718266841</v>
+        <v>0.0003325870524998483</v>
       </c>
       <c r="C41">
-        <v>0.0002084816218056727</v>
+        <v>0.0002539985151569474</v>
       </c>
       <c r="D41">
-        <v>0.0004880630630476767</v>
+        <v>0.0004947017768750545</v>
       </c>
       <c r="E41">
-        <v>0.000315048791470878</v>
+        <v>0.0003153448299075112</v>
       </c>
       <c r="F41">
-        <v>0.0001745684283784686</v>
+        <v>0.0002150656605913862</v>
       </c>
       <c r="G41">
-        <v>0.0002292731234467677</v>
+        <v>0.000235424154034614</v>
       </c>
       <c r="H41">
-        <v>0.0002125318509264939</v>
-      </c>
-      <c r="I41">
-        <v>0.0002318428401559116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.00023928468310928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.000301876275057355</v>
+        <v>0.0003479120393446247</v>
       </c>
       <c r="C42">
-        <v>0.000259719876881985</v>
+        <v>0.0003085372812273108</v>
       </c>
       <c r="D42">
-        <v>0.0003560714226565861</v>
+        <v>0.0003725237559911505</v>
       </c>
       <c r="E42">
-        <v>0.0002558430263245292</v>
+        <v>0.0002755486536342686</v>
       </c>
       <c r="F42">
-        <v>0.0002602752181439125</v>
+        <v>0.0003040742301002496</v>
       </c>
       <c r="G42">
-        <v>0.0003819623116463432</v>
+        <v>0.0003934617399712724</v>
       </c>
       <c r="H42">
-        <v>0.0002224033607972009</v>
-      </c>
-      <c r="I42">
-        <v>0.000230530895961582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.0002520540435603289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0003081782783046397</v>
+        <v>0.0003366587505891214</v>
       </c>
       <c r="C43">
-        <v>0.0002279313496087952</v>
+        <v>0.0002726309041586561</v>
       </c>
       <c r="D43">
-        <v>0.0002051798195682598</v>
+        <v>0.000236430084200044</v>
       </c>
       <c r="E43">
-        <v>0.0001861648732160442</v>
+        <v>0.0002258697388815221</v>
       </c>
       <c r="F43">
-        <v>0.0003523117724474622</v>
+        <v>0.0003827612227679137</v>
       </c>
       <c r="G43">
-        <v>0.0005116695316215549</v>
+        <v>0.0005564382132360674</v>
       </c>
       <c r="H43">
-        <v>0.0002518256249694662</v>
-      </c>
-      <c r="I43">
-        <v>0.0001951866044105676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.000293769195455614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0004388894915980405</v>
+        <v>0.0004635874717149279</v>
       </c>
       <c r="C44">
-        <v>0.0002802790120302446</v>
+        <v>0.0003495076026044939</v>
       </c>
       <c r="D44">
-        <v>0.0003663443096679638</v>
+        <v>0.0003911291338970774</v>
       </c>
       <c r="E44">
-        <v>0.0003693332082247062</v>
+        <v>0.0003977214418504425</v>
       </c>
       <c r="F44">
-        <v>0.000296473235085547</v>
+        <v>0.0003697018649599463</v>
       </c>
       <c r="G44">
-        <v>0.0007690626503165513</v>
+        <v>0.0008408667012609324</v>
       </c>
       <c r="H44">
-        <v>0.0003398336454325512</v>
-      </c>
-      <c r="I44">
-        <v>0.0002875231465242096</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.0003956452027460903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0004564788187130712</v>
+        <v>0.000487046199840655</v>
       </c>
       <c r="C45">
-        <v>0.000318186438056963</v>
+        <v>0.0003772408972888285</v>
       </c>
       <c r="D45">
-        <v>0.0003695215966214301</v>
+        <v>0.000399354839268519</v>
       </c>
       <c r="E45">
-        <v>0.000375431790912264</v>
+        <v>0.0004071260024512572</v>
       </c>
       <c r="F45">
-        <v>0.0004426981591002344</v>
+        <v>0.0004972861661630033</v>
       </c>
       <c r="G45">
-        <v>0.0006074086052248799</v>
+        <v>0.0006660060746814431</v>
       </c>
       <c r="H45">
-        <v>0.0003591940372489838</v>
-      </c>
-      <c r="I45">
-        <v>0.0003203279222858761</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.0004188655859509844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.0005550716414715627</v>
+        <v>0.0005886041979283005</v>
       </c>
       <c r="C46">
-        <v>0.0004046980876270126</v>
+        <v>0.0004788272283239338</v>
       </c>
       <c r="D46">
-        <v>0.0004826728174890368</v>
+        <v>0.0005169904711437649</v>
       </c>
       <c r="E46">
-        <v>0.0005368569380224202</v>
+        <v>0.0005633103603318126</v>
       </c>
       <c r="F46">
-        <v>0.0004293619459017143</v>
+        <v>0.0005245080609731702</v>
       </c>
       <c r="G46">
-        <v>0.0007796424417266137</v>
+        <v>0.000864662535827857</v>
       </c>
       <c r="H46">
-        <v>0.0005711095418309167</v>
-      </c>
-      <c r="I46">
-        <v>0.0003989804101472157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.0006535723107782751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.000612429843374948</v>
+        <v>0.0006552448493651239</v>
       </c>
       <c r="C47">
-        <v>0.0003620353416837023</v>
+        <v>0.000434950656612881</v>
       </c>
       <c r="D47">
-        <v>0.0004330957112379804</v>
+        <v>0.0004712229671480659</v>
       </c>
       <c r="E47">
-        <v>0.0004334406136623096</v>
+        <v>0.0004768834766214893</v>
       </c>
       <c r="F47">
-        <v>0.0004024018076310331</v>
+        <v>0.000472602986812418</v>
       </c>
       <c r="G47">
-        <v>0.0007271700967705749</v>
+        <v>0.0007905472727658783</v>
       </c>
       <c r="H47">
-        <v>0.0004655745457135509</v>
-      </c>
-      <c r="I47">
-        <v>0.0003673976191708615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0005252934827348973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.0006989193411006496</v>
+        <v>0.0007661167353279308</v>
       </c>
       <c r="C48">
-        <v>0.0003611152820074949</v>
+        <v>0.0004174728652187125</v>
       </c>
       <c r="D48">
-        <v>0.0003029996782025546</v>
+        <v>0.0003650659383791068</v>
       </c>
       <c r="E48">
-        <v>0.0003045873943674026</v>
+        <v>0.000372681302765231</v>
       </c>
       <c r="F48">
-        <v>0.0004089866825907044</v>
+        <v>0.0004503425623702247</v>
       </c>
       <c r="G48">
-        <v>0.000617340469759245</v>
+        <v>0.0006517432957748562</v>
       </c>
       <c r="H48">
-        <v>0.0003572385923604498</v>
-      </c>
-      <c r="I48">
-        <v>0.0003104733117881596</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0003942604943999109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.001586395610794389</v>
+        <v>0.001810986564104171</v>
       </c>
       <c r="C49">
-        <v>0.0007987469665535618</v>
+        <v>0.0009408632564341657</v>
       </c>
       <c r="D49">
-        <v>0.001534010814319965</v>
+        <v>0.001625158630522085</v>
       </c>
       <c r="E49">
-        <v>0.002265611719708637</v>
+        <v>0.002420096837669959</v>
       </c>
       <c r="F49">
-        <v>0.001304802933318548</v>
+        <v>0.001552339974238916</v>
       </c>
       <c r="G49">
-        <v>0.0007842119773547558</v>
+        <v>0.0009275426257899626</v>
       </c>
       <c r="H49">
-        <v>0.0008806544133405537</v>
-      </c>
-      <c r="I49">
-        <v>0.0009053972865637015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.001009596630916276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.313110391024891E-05</v>
+        <v>7.344933498548058E-05</v>
       </c>
       <c r="C50">
-        <v>0.0001057820741107758</v>
+        <v>0.0001239449824884281</v>
       </c>
       <c r="D50">
-        <v>9.865776407467664E-05</v>
+        <v>9.587358283858712E-05</v>
       </c>
       <c r="E50">
-        <v>8.872783764113253E-05</v>
+        <v>9.039506845953357E-05</v>
       </c>
       <c r="F50">
-        <v>0.0001525200106139199</v>
+        <v>0.0001505471048238888</v>
       </c>
       <c r="G50">
-        <v>0.0001231169378217948</v>
+        <v>0.0001133782305524999</v>
       </c>
       <c r="H50">
-        <v>0.000164829348767268</v>
-      </c>
-      <c r="I50">
-        <v>0.000129171642761683</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.0001973749496589141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.539170566022926E-05</v>
+        <v>7.61144405903242E-05</v>
       </c>
       <c r="C51">
-        <v>9.92373297420666E-05</v>
+        <v>0.0001194017252383076</v>
       </c>
       <c r="D51">
-        <v>7.526058748993171E-05</v>
+        <v>9.101142920711836E-05</v>
       </c>
       <c r="E51">
-        <v>8.018257670661421E-05</v>
+        <v>9.012354844110276E-05</v>
       </c>
       <c r="F51">
-        <v>0.0001450117811666782</v>
+        <v>0.0001497248222277962</v>
       </c>
       <c r="G51">
-        <v>0.0002382562412922314</v>
+        <v>0.0002419359167874898</v>
       </c>
       <c r="H51">
-        <v>8.574609621150613E-05</v>
-      </c>
-      <c r="I51">
-        <v>8.943459116100858E-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0001041581527781251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.0001664833022824195</v>
+        <v>0.0001720719579689701</v>
       </c>
       <c r="C52">
-        <v>0.000180657243557364</v>
+        <v>0.0001861272612301128</v>
       </c>
       <c r="D52">
-        <v>0.0001821521538389637</v>
+        <v>0.0002203672766435042</v>
       </c>
       <c r="E52">
-        <v>0.0001596912890769131</v>
+        <v>0.0001989941096397616</v>
       </c>
       <c r="F52">
-        <v>0.0002795748156071743</v>
+        <v>0.000290290343774715</v>
       </c>
       <c r="G52">
-        <v>0.0001891003849083865</v>
+        <v>0.0001946909474261908</v>
       </c>
       <c r="H52">
-        <v>0.0002704405963039521</v>
-      </c>
-      <c r="I52">
-        <v>0.0001649788092636351</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.0003125765959278156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0001096624108299924</v>
+        <v>0.0001080418936233076</v>
       </c>
       <c r="C53">
-        <v>8.147591693528082E-05</v>
+        <v>8.439055942533969E-05</v>
       </c>
       <c r="D53">
-        <v>8.222034168605107E-05</v>
+        <v>8.676650260453979E-05</v>
       </c>
       <c r="E53">
-        <v>9.012118591944191E-05</v>
+        <v>8.856171191400524E-05</v>
       </c>
       <c r="F53">
-        <v>0.0002144188553972014</v>
+        <v>0.0002179044987566356</v>
       </c>
       <c r="G53">
-        <v>8.746365970965793E-05</v>
+        <v>8.438481500597475E-05</v>
       </c>
       <c r="H53">
-        <v>0.0001720955151268386</v>
-      </c>
-      <c r="I53">
-        <v>0.0001340788997230175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.0002070679608684796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.0002133786798678367</v>
+        <v>0.0002441366169527892</v>
       </c>
       <c r="C54">
-        <v>0.0002278721644466954</v>
+        <v>0.0002660514353800137</v>
       </c>
       <c r="D54">
-        <v>0.0002739284683972149</v>
+        <v>0.0002838213497672238</v>
       </c>
       <c r="E54">
-        <v>0.0002490345804008573</v>
+        <v>0.0002591816856967829</v>
       </c>
       <c r="F54">
-        <v>0.0008058380919106487</v>
+        <v>0.0008452614124689026</v>
       </c>
       <c r="G54">
-        <v>0.0002257386032068148</v>
+        <v>0.0002533727428109343</v>
       </c>
       <c r="H54">
-        <v>0.0003801105266829031</v>
-      </c>
-      <c r="I54">
-        <v>0.0002845513570201273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.000456097926144916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.0002638094713369461</v>
+        <v>0.0002852246259415622</v>
       </c>
       <c r="C55">
-        <v>0.0001835406930662557</v>
+        <v>0.0002207967718622949</v>
       </c>
       <c r="D55">
-        <v>0.0001923264903197697</v>
+        <v>0.0002186249185464915</v>
       </c>
       <c r="E55">
-        <v>0.0001916875209491188</v>
+        <v>0.0002183357018321834</v>
       </c>
       <c r="F55">
-        <v>0.0007049453929149101</v>
+        <v>0.000742228313813812</v>
       </c>
       <c r="G55">
-        <v>0.0002125439012926489</v>
+        <v>0.0002586685072437456</v>
       </c>
       <c r="H55">
-        <v>0.0002964517397142139</v>
-      </c>
-      <c r="I55">
-        <v>0.0002072855413504094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.0003481406725204212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0006360925548856028</v>
+        <v>0.0007116819793624601</v>
       </c>
       <c r="C56">
-        <v>0.0002176472254406377</v>
+        <v>0.0002565252070477276</v>
       </c>
       <c r="D56">
-        <v>0.000295268657003356</v>
+        <v>0.0003024563463858572</v>
       </c>
       <c r="E56">
-        <v>0.0002856427820510946</v>
+        <v>0.0002941121916081311</v>
       </c>
       <c r="F56">
-        <v>0.0003092143732984624</v>
+        <v>0.000315248530284177</v>
       </c>
       <c r="G56">
-        <v>0.0002107585927837112</v>
+        <v>0.0002395475674122234</v>
       </c>
       <c r="H56">
-        <v>0.0002277333753569562</v>
-      </c>
-      <c r="I56">
-        <v>0.0002621237052934873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.0002749691173110856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.0007370335384524746</v>
+        <v>0.0008505023173612137</v>
       </c>
       <c r="C57">
-        <v>0.0003633428331917365</v>
+        <v>0.0004159525784789528</v>
       </c>
       <c r="D57">
-        <v>0.0005288506861213358</v>
+        <v>0.0005278102710131214</v>
       </c>
       <c r="E57">
-        <v>0.0005166674973272608</v>
+        <v>0.0005189557628969943</v>
       </c>
       <c r="F57">
-        <v>0.0004677685477250245</v>
+        <v>0.0004669235581703681</v>
       </c>
       <c r="G57">
-        <v>0.00033965331214026</v>
+        <v>0.0003891058859245302</v>
       </c>
       <c r="H57">
-        <v>0.0004754288867379372</v>
-      </c>
-      <c r="I57">
-        <v>0.0004298951079427119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.0005703295489526852</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.000771446611615488</v>
+        <v>0.0008862555904389615</v>
       </c>
       <c r="C58">
-        <v>0.000383991449094871</v>
+        <v>0.0004545584524986302</v>
       </c>
       <c r="D58">
-        <v>0.0005366747498225429</v>
+        <v>0.0005391617731605539</v>
       </c>
       <c r="E58">
-        <v>0.0005306816112043691</v>
+        <v>0.0005336058567305148</v>
       </c>
       <c r="F58">
-        <v>0.0005716909271276575</v>
+        <v>0.0005782489743654536</v>
       </c>
       <c r="G58">
-        <v>0.0003696488638666046</v>
+        <v>0.0004239270849461794</v>
       </c>
       <c r="H58">
-        <v>0.0004528041556397398</v>
-      </c>
-      <c r="I58">
-        <v>0.0004338498135945885</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.0005535681800600259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.0006975557788940209</v>
+        <v>0.0007929449552497113</v>
       </c>
       <c r="C59">
-        <v>0.0003429111492386128</v>
+        <v>0.0004167194582827193</v>
       </c>
       <c r="D59">
-        <v>0.0004365255362926436</v>
+        <v>0.000436699519798383</v>
       </c>
       <c r="E59">
-        <v>0.0004474423510549207</v>
+        <v>0.0004477001283337921</v>
       </c>
       <c r="F59">
-        <v>0.0003403793206960768</v>
+        <v>0.0003372050151643958</v>
       </c>
       <c r="G59">
-        <v>0.0003135648866332892</v>
+        <v>0.0003658197949011746</v>
       </c>
       <c r="H59">
-        <v>0.0003073891719742007</v>
-      </c>
-      <c r="I59">
-        <v>0.0003631411171912531</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.000348638878311944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0007107381237670422</v>
+        <v>0.0008177685645868549</v>
       </c>
       <c r="C60">
-        <v>0.0003500901715518969</v>
+        <v>0.0004217247729497015</v>
       </c>
       <c r="D60">
-        <v>0.0005007864310736444</v>
+        <v>0.0005048549077111256</v>
       </c>
       <c r="E60">
-        <v>0.0004841187737664216</v>
+        <v>0.0004866669765534559</v>
       </c>
       <c r="F60">
-        <v>0.0004257500093931419</v>
+        <v>0.0004226819190614877</v>
       </c>
       <c r="G60">
-        <v>0.0003282031970490988</v>
+        <v>0.0003854737025513405</v>
       </c>
       <c r="H60">
-        <v>0.0003357520628138984</v>
-      </c>
-      <c r="I60">
-        <v>0.0003760545204365526</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.0004017940672611802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.001298210526661423</v>
+        <v>0.001529954098357009</v>
       </c>
       <c r="C61">
-        <v>0.001285553034239969</v>
+        <v>0.001602574045159604</v>
       </c>
       <c r="D61">
-        <v>0.002595780839501705</v>
+        <v>0.002717430460973826</v>
       </c>
       <c r="E61">
-        <v>0.003771487418223839</v>
+        <v>0.003968987133108654</v>
       </c>
       <c r="F61">
-        <v>0.00188212444450333</v>
+        <v>0.002087180292641089</v>
       </c>
       <c r="G61">
-        <v>0.001620931655299521</v>
+        <v>0.001960013692547693</v>
       </c>
       <c r="H61">
-        <v>0.001298773725364417</v>
-      </c>
-      <c r="I61">
-        <v>0.001344019238111745</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.001607738958371439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.0004224585155557765</v>
+        <v>0.0005092896243275661</v>
       </c>
       <c r="C62">
-        <v>0.0004369712322691508</v>
+        <v>0.0005195933933982528</v>
       </c>
       <c r="D62">
-        <v>0.0006317322593966827</v>
+        <v>0.0006573161569925635</v>
       </c>
       <c r="E62">
-        <v>0.0008553848023766685</v>
+        <v>0.0008811150548107815</v>
       </c>
       <c r="F62">
-        <v>0.0003893422683013732</v>
+        <v>0.0004625679578100987</v>
       </c>
       <c r="G62">
-        <v>0.0004383386449658175</v>
+        <v>0.0004714572284875601</v>
       </c>
       <c r="H62">
-        <v>0.0003478774332531324</v>
-      </c>
-      <c r="I62">
-        <v>0.0003678568928645451</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.0004320225349394227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0003945753662254218</v>
+        <v>0.0004719921787105758</v>
       </c>
       <c r="C63">
-        <v>0.0002853299301863617</v>
+        <v>0.0003440601620563325</v>
       </c>
       <c r="D63">
-        <v>0.000412829568522597</v>
+        <v>0.0004082682767942946</v>
       </c>
       <c r="E63">
-        <v>0.0004195421490078808</v>
+        <v>0.0004144670360908537</v>
       </c>
       <c r="F63">
-        <v>0.0003073627768531172</v>
+        <v>0.0003255387778527785</v>
       </c>
       <c r="G63">
-        <v>0.0003262550550143925</v>
+        <v>0.0003306381176719128</v>
       </c>
       <c r="H63">
-        <v>0.0002939538298768697</v>
-      </c>
-      <c r="I63">
-        <v>0.0003080022656417031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.0003634581108375589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.0006627988536133487</v>
+        <v>0.0007839992417598838</v>
       </c>
       <c r="C64">
-        <v>0.0005596636657268594</v>
+        <v>0.000677184758439982</v>
       </c>
       <c r="D64">
-        <v>0.0009311605439789052</v>
+        <v>0.0009580514347241841</v>
       </c>
       <c r="E64">
-        <v>0.001001001424555124</v>
+        <v>0.001029843181230693</v>
       </c>
       <c r="F64">
-        <v>0.0005166935951262083</v>
+        <v>0.0006241816631631113</v>
       </c>
       <c r="G64">
-        <v>0.0005585737460114404</v>
+        <v>0.0005999459254060326</v>
       </c>
       <c r="H64">
-        <v>0.0004792236268534653</v>
-      </c>
-      <c r="I64">
-        <v>0.0004995107599674401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.0005761895320748689</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.0006113503034579547</v>
+        <v>0.0006750933107040035</v>
       </c>
       <c r="C65">
-        <v>0.0002815083801487684</v>
+        <v>0.0003292993743466245</v>
       </c>
       <c r="D65">
-        <v>0.000252359301217987</v>
+        <v>0.0003127187262887481</v>
       </c>
       <c r="E65">
-        <v>0.0002895549714313637</v>
+        <v>0.0003367695182209932</v>
       </c>
       <c r="F65">
-        <v>0.0004942728424795871</v>
+        <v>0.0005546644036915698</v>
       </c>
       <c r="G65">
-        <v>0.0007504278681488023</v>
+        <v>0.0008220903960018213</v>
       </c>
       <c r="H65">
-        <v>0.0002571907687905765</v>
-      </c>
-      <c r="I65">
-        <v>0.0002588206719163646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.0003086478629969895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.0006496723062773165</v>
+        <v>0.0006943947930152547</v>
       </c>
       <c r="C66">
-        <v>0.0005126283687618677</v>
+        <v>0.0005798314575650776</v>
       </c>
       <c r="D66">
-        <v>0.0004489735105220154</v>
+        <v>0.0004877637968253916</v>
       </c>
       <c r="E66">
-        <v>0.0004467232382854085</v>
+        <v>0.0005037662603651702</v>
       </c>
       <c r="F66">
-        <v>0.0005478007953139008</v>
+        <v>0.0005866299501417185</v>
       </c>
       <c r="G66">
-        <v>0.0008169084315353552</v>
+        <v>0.0009248079026478298</v>
       </c>
       <c r="H66">
-        <v>0.0005204120486057955</v>
-      </c>
-      <c r="I66">
-        <v>0.0004405178729356479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.0005905648605471219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.0005400216329969778</v>
+        <v>0.0006167903142687347</v>
       </c>
       <c r="C67">
-        <v>0.0003292500362090789</v>
+        <v>0.0004013673080477443</v>
       </c>
       <c r="D67">
-        <v>0.0005429129242879631</v>
+        <v>0.0005601059025227024</v>
       </c>
       <c r="E67">
-        <v>0.0005055735702590027</v>
+        <v>0.0005227643157401566</v>
       </c>
       <c r="F67">
-        <v>0.0003947516718658604</v>
+        <v>0.0004696962290391238</v>
       </c>
       <c r="G67">
-        <v>0.0004221147266559543</v>
+        <v>0.000444725595934963</v>
       </c>
       <c r="H67">
-        <v>0.0003047097043760172</v>
-      </c>
-      <c r="I67">
-        <v>0.0003239080081618616</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.000370699451271408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.0005468720042361591</v>
+        <v>0.0005864563216123471</v>
       </c>
       <c r="C68">
-        <v>0.0003521074536973347</v>
+        <v>0.0004280698442310657</v>
       </c>
       <c r="D68">
-        <v>0.0003308566544939107</v>
+        <v>0.0004038865985946432</v>
       </c>
       <c r="E68">
-        <v>0.0003787659086490161</v>
+        <v>0.000449998885999072</v>
       </c>
       <c r="F68">
-        <v>0.0008956656217634514</v>
+        <v>0.0009477184193484056</v>
       </c>
       <c r="G68">
-        <v>0.0006504264611946329</v>
+        <v>0.000727581613636006</v>
       </c>
       <c r="H68">
-        <v>0.0004131322861900179</v>
-      </c>
-      <c r="I68">
-        <v>0.0003465603095535133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.000473221759646996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0006181164616868211</v>
+        <v>0.0006613837656468915</v>
       </c>
       <c r="C69">
-        <v>0.0003109800540510296</v>
+        <v>0.0003815930227659375</v>
       </c>
       <c r="D69">
-        <v>0.000315245972155667</v>
+        <v>0.0003769277089625922</v>
       </c>
       <c r="E69">
-        <v>0.0003170430785313193</v>
+        <v>0.0003797269667743062</v>
       </c>
       <c r="F69">
-        <v>0.0005525760180018737</v>
+        <v>0.0005831209230859791</v>
       </c>
       <c r="G69">
-        <v>0.0006654087772155672</v>
+        <v>0.0007352049653366651</v>
       </c>
       <c r="H69">
-        <v>0.0003433038205978227</v>
-      </c>
-      <c r="I69">
-        <v>0.0003075733978567873</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.0003924863055337239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.001008764238949305</v>
+        <v>0.001166311788383535</v>
       </c>
       <c r="C70">
-        <v>0.0007279361116165422</v>
+        <v>0.0008566798146308018</v>
       </c>
       <c r="D70">
-        <v>0.0009126752340692316</v>
+        <v>0.0009463674127802721</v>
       </c>
       <c r="E70">
-        <v>0.001103827919418235</v>
+        <v>0.001141746523323431</v>
       </c>
       <c r="F70">
-        <v>0.0006158828366540918</v>
+        <v>0.0006772014990511109</v>
       </c>
       <c r="G70">
-        <v>0.0005566910675865616</v>
+        <v>0.0006057786222112762</v>
       </c>
       <c r="H70">
-        <v>0.0005967948274747981</v>
-      </c>
-      <c r="I70">
-        <v>0.0006058259275391872</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.000737118557943954</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0005702544756259105</v>
+        <v>0.0006687216067428836</v>
       </c>
       <c r="C71">
-        <v>0.0007372671782822368</v>
+        <v>0.0008290537185394319</v>
       </c>
       <c r="D71">
-        <v>0.0006288936636044853</v>
+        <v>0.0006493900522113317</v>
       </c>
       <c r="E71">
-        <v>0.000648382732668514</v>
+        <v>0.0006683160736513266</v>
       </c>
       <c r="F71">
-        <v>0.0004384143647893901</v>
+        <v>0.0004788770430747293</v>
       </c>
       <c r="G71">
-        <v>0.0003927892194382245</v>
+        <v>0.0004366277109514395</v>
       </c>
       <c r="H71">
-        <v>0.0003961425747051402</v>
-      </c>
-      <c r="I71">
-        <v>0.0004333624563260227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.0004823699249853049</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0005583866548282487</v>
+        <v>0.0005967985420500766</v>
       </c>
       <c r="C72">
-        <v>0.0003506416079471679</v>
+        <v>0.0004285337899765596</v>
       </c>
       <c r="D72">
-        <v>0.0004036399278010412</v>
+        <v>0.0004555489208811156</v>
       </c>
       <c r="E72">
-        <v>0.0004647841537510133</v>
+        <v>0.0005116564107936682</v>
       </c>
       <c r="F72">
-        <v>0.0004748589017326837</v>
+        <v>0.0005007641464810305</v>
       </c>
       <c r="G72">
-        <v>0.0005464816807477168</v>
+        <v>0.0005962103466087141</v>
       </c>
       <c r="H72">
-        <v>0.0004018290835279364</v>
-      </c>
-      <c r="I72">
-        <v>0.0003648302670151335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.0004467332116989411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.0009691932325270183</v>
+        <v>0.001127077845869552</v>
       </c>
       <c r="C73">
-        <v>0.0004013585981971139</v>
+        <v>0.000419394361646927</v>
       </c>
       <c r="D73">
-        <v>0.0003971102828138869</v>
+        <v>0.0004140888682254618</v>
       </c>
       <c r="E73">
-        <v>0.0004180399623852826</v>
+        <v>0.0004399812212774908</v>
       </c>
       <c r="F73">
-        <v>0.0007107009322943554</v>
+        <v>0.0007077259994971837</v>
       </c>
       <c r="G73">
-        <v>0.0005729149281430605</v>
+        <v>0.0005635827573322524</v>
       </c>
       <c r="H73">
-        <v>0.0005301320611553034</v>
-      </c>
-      <c r="I73">
-        <v>0.00052979575165194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.0006548234466800338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0001234089160631477</v>
+        <v>0.0001317520361032664</v>
       </c>
       <c r="C74">
-        <v>0.0001708897344137575</v>
+        <v>0.0002003934023986757</v>
       </c>
       <c r="D74">
-        <v>0.0001536345931369794</v>
+        <v>0.0001437858065219384</v>
       </c>
       <c r="E74">
-        <v>0.0001514240049820645</v>
+        <v>0.0001392921962002575</v>
       </c>
       <c r="F74">
-        <v>0.0002047169921586713</v>
+        <v>0.0001984211036313009</v>
       </c>
       <c r="G74">
-        <v>0.0001550703859188351</v>
+        <v>0.0001361886956527654</v>
       </c>
       <c r="H74">
-        <v>0.0001945709830107143</v>
-      </c>
-      <c r="I74">
-        <v>0.0001987503287843101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.0002410138401172921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.00248431241262532</v>
+        <v>0.002886683105253794</v>
       </c>
       <c r="C75">
-        <v>0.002229772048639476</v>
+        <v>0.002662645752104776</v>
       </c>
       <c r="D75">
-        <v>0.004295099548339786</v>
+        <v>0.00446857256774881</v>
       </c>
       <c r="E75">
-        <v>0.002723319264684986</v>
+        <v>0.003008385824841712</v>
       </c>
       <c r="F75">
-        <v>0.004529880065727564</v>
+        <v>0.004744228712776764</v>
       </c>
       <c r="G75">
-        <v>0.002413050342722479</v>
+        <v>0.00294708475881755</v>
       </c>
       <c r="H75">
-        <v>0.002603445854597556</v>
-      </c>
-      <c r="I75">
-        <v>0.002241579318445421</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.003021991951258755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0003039981292609972</v>
+        <v>0.0003290456243343301</v>
       </c>
       <c r="C76">
-        <v>0.0001023312852210417</v>
+        <v>0.0001260888878364594</v>
       </c>
       <c r="D76">
-        <v>0.0001064290929827547</v>
+        <v>0.0001163620271623044</v>
       </c>
       <c r="E76">
-        <v>9.491248240732183E-05</v>
+        <v>0.0001106275602886699</v>
       </c>
       <c r="F76">
-        <v>0.0001459745470480172</v>
+        <v>0.0001565068458786355</v>
       </c>
       <c r="G76">
-        <v>0.0001020160136574452</v>
+        <v>0.0001272129148558744</v>
       </c>
       <c r="H76">
-        <v>0.000120993448149631</v>
-      </c>
-      <c r="I76">
-        <v>9.614468282380515E-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.0001321575745306224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.0003466654315241066</v>
+        <v>0.0003780411106563693</v>
       </c>
       <c r="C77">
-        <v>0.0001186553877016564</v>
+        <v>0.0001460022220716039</v>
       </c>
       <c r="D77">
-        <v>0.0001999541713554231</v>
+        <v>0.000215629575551596</v>
       </c>
       <c r="E77">
-        <v>0.0001563106884060576</v>
+        <v>0.0001702970259016421</v>
       </c>
       <c r="F77">
-        <v>9.931183139500832E-05</v>
+        <v>0.000123840788519333</v>
       </c>
       <c r="G77">
-        <v>0.0001654974584959453</v>
+        <v>0.0001871313694344944</v>
       </c>
       <c r="H77">
-        <v>0.0001451483553900293</v>
-      </c>
-      <c r="I77">
-        <v>0.0001229044429094919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.0001615365965136299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.0003855895843739053</v>
+        <v>0.0004080111670005522</v>
       </c>
       <c r="C78">
-        <v>0.0001871763443701776</v>
+        <v>0.0002017071617288906</v>
       </c>
       <c r="D78">
-        <v>0.0001775398581704765</v>
+        <v>0.0002195021178834178</v>
       </c>
       <c r="E78">
-        <v>0.0001641682100585643</v>
+        <v>0.0001847424644795483</v>
       </c>
       <c r="F78">
-        <v>0.0002033404307355125</v>
+        <v>0.0002145546416604154</v>
       </c>
       <c r="G78">
-        <v>0.0003518522020609395</v>
+        <v>0.0003898192088487788</v>
       </c>
       <c r="H78">
-        <v>0.0003108680938629303</v>
-      </c>
-      <c r="I78">
-        <v>0.0002017962772539432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.0003503580064956085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.0001992266931483045</v>
+        <v>0.0002058170655453576</v>
       </c>
       <c r="C79">
-        <v>0.0002010570317166091</v>
+        <v>0.00020901460672701</v>
       </c>
       <c r="D79">
-        <v>0.000186232497637207</v>
+        <v>0.0002123183139248353</v>
       </c>
       <c r="E79">
-        <v>0.0002043847067792119</v>
+        <v>0.0002306809080872371</v>
       </c>
       <c r="F79">
-        <v>9.253914463487603E-05</v>
+        <v>0.0001125368410526561</v>
       </c>
       <c r="G79">
-        <v>0.0002247092992369452</v>
+        <v>0.0002340791878977231</v>
       </c>
       <c r="H79">
-        <v>0.0001495313159650978</v>
-      </c>
-      <c r="I79">
-        <v>0.0001459598490376697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.0001818749805397074</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.0006360338554378892</v>
+        <v>0.0007240473994873804</v>
       </c>
       <c r="C80">
-        <v>0.0004532486772617705</v>
+        <v>0.000513528377829177</v>
       </c>
       <c r="D80">
-        <v>0.0004132343768621044</v>
+        <v>0.0004928914329486788</v>
       </c>
       <c r="E80">
-        <v>0.0004609688341202255</v>
+        <v>0.0005352271341165236</v>
       </c>
       <c r="F80">
-        <v>0.001625002887723674</v>
+        <v>0.001769247765191524</v>
       </c>
       <c r="G80">
-        <v>0.0004201559670147617</v>
+        <v>0.0004804348678305387</v>
       </c>
       <c r="H80">
-        <v>0.0003824434596134511</v>
-      </c>
-      <c r="I80">
-        <v>0.000387666866595455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.0004769070864111367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.0005589738089225314</v>
+        <v>0.0006611153284957529</v>
       </c>
       <c r="C81">
-        <v>0.000354438139475332</v>
+        <v>0.0004276179900193714</v>
       </c>
       <c r="D81">
-        <v>0.0007085100301230552</v>
+        <v>0.0007225532006540525</v>
       </c>
       <c r="E81">
-        <v>0.0006063382853840857</v>
+        <v>0.0006087448185682452</v>
       </c>
       <c r="F81">
-        <v>0.0003766119278670394</v>
+        <v>0.0004468154372615705</v>
       </c>
       <c r="G81">
-        <v>0.0004567540577797582</v>
+        <v>0.0004700038484766867</v>
       </c>
       <c r="H81">
-        <v>0.0003456749161287199</v>
-      </c>
-      <c r="I81">
-        <v>0.0004031464915812157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.0004093440079994988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0004843245681993219</v>
+        <v>0.0005711329024524777</v>
       </c>
       <c r="C82">
-        <v>0.0003989908071574767</v>
+        <v>0.0004882597810151318</v>
       </c>
       <c r="D82">
-        <v>0.0006351536346731308</v>
+        <v>0.0006713085488166917</v>
       </c>
       <c r="E82">
-        <v>0.0006394749147218956</v>
+        <v>0.0006775656457484247</v>
       </c>
       <c r="F82">
-        <v>0.0009773619793560608</v>
+        <v>0.001075918745649195</v>
       </c>
       <c r="G82">
-        <v>0.0005038846098978268</v>
+        <v>0.0005447604064143615</v>
       </c>
       <c r="H82">
-        <v>0.0004243043554489733</v>
-      </c>
-      <c r="I82">
-        <v>0.000417058212401599</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0005181768599100869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0005378911178728795</v>
+        <v>0.0006230043029533668</v>
       </c>
       <c r="C83">
-        <v>0.0004183465866713372</v>
+        <v>0.0004690294064556976</v>
       </c>
       <c r="D83">
-        <v>0.0004027062710704907</v>
+        <v>0.0004454906667346194</v>
       </c>
       <c r="E83">
-        <v>0.0004581793477278363</v>
+        <v>0.0005017983414843865</v>
       </c>
       <c r="F83">
-        <v>0.001200096253955407</v>
+        <v>0.001300617585186277</v>
       </c>
       <c r="G83">
-        <v>0.0005007756218280565</v>
+        <v>0.0005462823006413967</v>
       </c>
       <c r="H83">
-        <v>0.0004174286851804055</v>
-      </c>
-      <c r="I83">
-        <v>0.0004148495432583522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.0005039494639399541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.0003490552492729807</v>
+        <v>0.0003807739259536026</v>
       </c>
       <c r="C84">
-        <v>0.0003517215229555007</v>
+        <v>0.0004083237956568888</v>
       </c>
       <c r="D84">
-        <v>0.0002816747023091221</v>
+        <v>0.0003291511446906821</v>
       </c>
       <c r="E84">
-        <v>0.0003051932335684971</v>
+        <v>0.0003434478079657235</v>
       </c>
       <c r="F84">
-        <v>0.0008788186622582069</v>
+        <v>0.0009274466669723475</v>
       </c>
       <c r="G84">
-        <v>0.0003493990444802635</v>
+        <v>0.0004057535531498298</v>
       </c>
       <c r="H84">
-        <v>0.0002947812204413946</v>
-      </c>
-      <c r="I84">
-        <v>0.0002836327526244579</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.0003562974784960285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.000339262856273652</v>
+        <v>0.0003771003595214249</v>
       </c>
       <c r="C85">
-        <v>0.0003241773599765741</v>
+        <v>0.000370519479741209</v>
       </c>
       <c r="D85">
-        <v>0.0003428324090895699</v>
+        <v>0.000374162326037694</v>
       </c>
       <c r="E85">
-        <v>0.00033695022958107</v>
+        <v>0.0003867185234148566</v>
       </c>
       <c r="F85">
-        <v>0.001535114194444747</v>
+        <v>0.001619324165852235</v>
       </c>
       <c r="G85">
-        <v>0.0003044992189041032</v>
+        <v>0.000336920518131356</v>
       </c>
       <c r="H85">
-        <v>0.000520739465309995</v>
-      </c>
-      <c r="I85">
-        <v>0.0004203073346428292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.0006295052147262045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.000732438564163641</v>
+        <v>0.000849048087019607</v>
       </c>
       <c r="C86">
-        <v>0.0004433153406053566</v>
+        <v>0.0005179369914213286</v>
       </c>
       <c r="D86">
-        <v>0.000480102994399193</v>
+        <v>0.0004938617180460554</v>
       </c>
       <c r="E86">
-        <v>0.0005149691674939279</v>
+        <v>0.0005252256285684717</v>
       </c>
       <c r="F86">
-        <v>0.0009912429918853478</v>
+        <v>0.001024017385161196</v>
       </c>
       <c r="G86">
-        <v>0.0004292624284827108</v>
+        <v>0.0004723057432422725</v>
       </c>
       <c r="H86">
-        <v>0.000606541675446082</v>
-      </c>
-      <c r="I86">
-        <v>0.0005125614093357647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.0007132047402982452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.0002038723857500231</v>
+        <v>0.0002245364058365681</v>
       </c>
       <c r="C87">
-        <v>0.0001940591147402045</v>
+        <v>0.0002164443331205546</v>
       </c>
       <c r="D87">
-        <v>0.0002196434652967775</v>
+        <v>0.0002323600745050595</v>
       </c>
       <c r="E87">
-        <v>0.0003866044257591797</v>
+        <v>0.00041093132576372</v>
       </c>
       <c r="F87">
-        <v>0.0004691322240681347</v>
+        <v>0.0005161189993463297</v>
       </c>
       <c r="G87">
-        <v>0.0003036327073798554</v>
+        <v>0.0003502186313761721</v>
       </c>
       <c r="H87">
-        <v>0.0001873890049529471</v>
-      </c>
-      <c r="I87">
-        <v>0.0002270921121207593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.000215738599643858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.0003604281259502279</v>
+        <v>0.0004303426511036938</v>
       </c>
       <c r="C88">
-        <v>0.0004273683990379637</v>
+        <v>0.0004661307081722436</v>
       </c>
       <c r="D88">
-        <v>0.0007725437833408325</v>
+        <v>0.0008034180703179431</v>
       </c>
       <c r="E88">
-        <v>0.0006043411833992522</v>
+        <v>0.0006327019281068117</v>
       </c>
       <c r="F88">
-        <v>0.0005234590265456367</v>
+        <v>0.0006077934608013202</v>
       </c>
       <c r="G88">
-        <v>0.000492206581250754</v>
+        <v>0.0005741385613142835</v>
       </c>
       <c r="H88">
-        <v>0.0003408162593672849</v>
-      </c>
-      <c r="I88">
-        <v>0.0003652802072485712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.0004208752834552146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.0003786363750619078</v>
+        <v>0.0004478021421980807</v>
       </c>
       <c r="C89">
-        <v>0.0003567903479987283</v>
+        <v>0.0004449175513521021</v>
       </c>
       <c r="D89">
-        <v>0.0005328770962173628</v>
+        <v>0.0005848802711781883</v>
       </c>
       <c r="E89">
-        <v>0.0005882482090078957</v>
+        <v>0.000644585720902768</v>
       </c>
       <c r="F89">
-        <v>0.001446788466333359</v>
+        <v>0.001573897430335276</v>
       </c>
       <c r="G89">
-        <v>0.0003198569625187574</v>
+        <v>0.0003826283373162457</v>
       </c>
       <c r="H89">
-        <v>0.0003581288247675842</v>
-      </c>
-      <c r="I89">
-        <v>0.0003573352475484553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.0004404216534592956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.0004952467428249314</v>
+        <v>0.0006105881166691836</v>
       </c>
       <c r="C90">
-        <v>0.0005567942201404538</v>
+        <v>0.0006650034207117518</v>
       </c>
       <c r="D90">
-        <v>0.0006499742442703083</v>
+        <v>0.0006913060323234113</v>
       </c>
       <c r="E90">
-        <v>0.0007428708847967811</v>
+        <v>0.0007775920405007924</v>
       </c>
       <c r="F90">
-        <v>0.001279011730121123</v>
+        <v>0.001327694051005963</v>
       </c>
       <c r="G90">
-        <v>0.0006537755808135476</v>
+        <v>0.0007780561841937456</v>
       </c>
       <c r="H90">
-        <v>0.000477711763093596</v>
-      </c>
-      <c r="I90">
-        <v>0.0004881617736471431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.0005957070503283316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0003707755680517848</v>
+        <v>0.0004577493998844857</v>
       </c>
       <c r="C91">
-        <v>0.0004354210119183576</v>
+        <v>0.0005287400512469137</v>
       </c>
       <c r="D91">
-        <v>0.0005081194210448586</v>
+        <v>0.0005508147262250197</v>
       </c>
       <c r="E91">
-        <v>0.0004280815924486969</v>
+        <v>0.0004965007040312619</v>
       </c>
       <c r="F91">
-        <v>0.00145794742702177</v>
+        <v>0.00153153893469791</v>
       </c>
       <c r="G91">
-        <v>0.0002996283180003935</v>
+        <v>0.0003679672820917478</v>
       </c>
       <c r="H91">
-        <v>0.0004903028597201437</v>
-      </c>
-      <c r="I91">
-        <v>0.0003642329882989358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.0005883810798651187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0009118898456229072</v>
+        <v>0.001106277687021474</v>
       </c>
       <c r="C92">
-        <v>0.000848615737492174</v>
+        <v>0.001017550005133367</v>
       </c>
       <c r="D92">
-        <v>0.001375369210391325</v>
+        <v>0.001395446686041372</v>
       </c>
       <c r="E92">
-        <v>0.001348318242276016</v>
+        <v>0.00136359510672714</v>
       </c>
       <c r="F92">
-        <v>0.001716200853852035</v>
+        <v>0.001769254454715704</v>
       </c>
       <c r="G92">
-        <v>0.0009333898618275276</v>
+        <v>0.001135460035344056</v>
       </c>
       <c r="H92">
-        <v>0.001161145454989308</v>
-      </c>
-      <c r="I92">
-        <v>0.0009194042529597609</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.001409727266002452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.0008271056349659521</v>
+        <v>0.0009452651264453267</v>
       </c>
       <c r="C93">
-        <v>0.001745975633911088</v>
+        <v>0.002045969821057145</v>
       </c>
       <c r="D93">
-        <v>0.001557676782960018</v>
+        <v>0.001580023046129029</v>
       </c>
       <c r="E93">
-        <v>0.001568637634471324</v>
+        <v>0.001573562440983966</v>
       </c>
       <c r="F93">
-        <v>0.0009636368821461915</v>
+        <v>0.00106654963032133</v>
       </c>
       <c r="G93">
-        <v>0.001017086130578361</v>
+        <v>0.001231167491134591</v>
       </c>
       <c r="H93">
-        <v>0.0007855061180002949</v>
-      </c>
-      <c r="I93">
-        <v>0.001012300075169876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.000851790339076219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0004482143947722785</v>
+        <v>0.0005186434593659562</v>
       </c>
       <c r="C94">
-        <v>0.000388753267677771</v>
+        <v>0.0004652219365677391</v>
       </c>
       <c r="D94">
-        <v>0.000438841446471978</v>
+        <v>0.0004822200822695015</v>
       </c>
       <c r="E94">
-        <v>0.0004181833388921944</v>
+        <v>0.0004645371793797886</v>
       </c>
       <c r="F94">
-        <v>0.001183946783264952</v>
+        <v>0.001261279449112459</v>
       </c>
       <c r="G94">
-        <v>0.0004003234063546501</v>
+        <v>0.0004421743331256311</v>
       </c>
       <c r="H94">
-        <v>0.0003680593547957666</v>
-      </c>
-      <c r="I94">
-        <v>0.0003772308105575035</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.0004424950997151737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.0003405314279495792</v>
+        <v>0.0004166994488851035</v>
       </c>
       <c r="C95">
-        <v>0.0007354503180767076</v>
+        <v>0.0008190217642099328</v>
       </c>
       <c r="D95">
-        <v>0.0004337858523190073</v>
+        <v>0.0004520047457558559</v>
       </c>
       <c r="E95">
-        <v>0.0004852933115248401</v>
+        <v>0.0005044063904178717</v>
       </c>
       <c r="F95">
-        <v>0.0003202819486559707</v>
+        <v>0.0003572530259885319</v>
       </c>
       <c r="G95">
-        <v>0.0003010639708352889</v>
+        <v>0.0003677520289817835</v>
       </c>
       <c r="H95">
-        <v>0.0002979479732416667</v>
-      </c>
-      <c r="I95">
-        <v>0.0003154623908360584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.0003236935293078312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.000277307544045829</v>
+        <v>0.0002763189666908446</v>
       </c>
       <c r="C96">
-        <v>0.0002431071301120692</v>
+        <v>0.0002524721692158997</v>
       </c>
       <c r="D96">
-        <v>0.0003023340213019797</v>
+        <v>0.0003027189680082845</v>
       </c>
       <c r="E96">
-        <v>0.0002805404235117242</v>
+        <v>0.0002803310049612481</v>
       </c>
       <c r="F96">
-        <v>0.0002338694484614151</v>
+        <v>0.000287098872778257</v>
       </c>
       <c r="G96">
-        <v>0.0003899514185414444</v>
+        <v>0.0004472771890142158</v>
       </c>
       <c r="H96">
-        <v>0.0002879272382668962</v>
-      </c>
-      <c r="I96">
-        <v>0.000253037923559231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.0003510046319550621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0003557278105930462</v>
+        <v>0.0003768310446873037</v>
       </c>
       <c r="C97">
-        <v>0.0002694225714348451</v>
+        <v>0.0003274552790909405</v>
       </c>
       <c r="D97">
-        <v>0.000267397906574604</v>
+        <v>0.0002978416861370796</v>
       </c>
       <c r="E97">
-        <v>0.0003012181728854962</v>
+        <v>0.0003229976858728895</v>
       </c>
       <c r="F97">
-        <v>0.0007873191124544348</v>
+        <v>0.0008244114452037401</v>
       </c>
       <c r="G97">
-        <v>0.0004507834536713434</v>
+        <v>0.0005190372675526882</v>
       </c>
       <c r="H97">
-        <v>0.0002847640946175043</v>
-      </c>
-      <c r="I97">
-        <v>0.0002988338959518956</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.0003464325823510465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.0002498071541672391</v>
+        <v>0.0002653621365579072</v>
       </c>
       <c r="C98">
-        <v>0.0002068060514524418</v>
+        <v>0.0002340797756332737</v>
       </c>
       <c r="D98">
-        <v>0.000201397318294336</v>
+        <v>0.0002356043627750762</v>
       </c>
       <c r="E98">
-        <v>0.0002215739029569906</v>
+        <v>0.0002413992997801727</v>
       </c>
       <c r="F98">
-        <v>0.0005347564500542858</v>
+        <v>0.0005560791574957584</v>
       </c>
       <c r="G98">
-        <v>0.0004076498909522355</v>
+        <v>0.0004629481602698603</v>
       </c>
       <c r="H98">
-        <v>0.0002466756098031333</v>
-      </c>
-      <c r="I98">
-        <v>0.0002286823613817796</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.0002989961693042619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.001197388767566684</v>
+        <v>0.001397608281994364</v>
       </c>
       <c r="C99">
-        <v>0.0006002674031806499</v>
+        <v>0.0007264521082645985</v>
       </c>
       <c r="D99">
-        <v>0.0009157173766069805</v>
+        <v>0.0009242313499354208</v>
       </c>
       <c r="E99">
-        <v>0.0009809378499394173</v>
+        <v>0.0009927759784156016</v>
       </c>
       <c r="F99">
-        <v>0.0007961882661683363</v>
+        <v>0.0008055031558136755</v>
       </c>
       <c r="G99">
-        <v>0.0005905249632270993</v>
+        <v>0.0006475839966761073</v>
       </c>
       <c r="H99">
-        <v>0.0006550072102263965</v>
-      </c>
-      <c r="I99">
-        <v>0.0006798146960275679</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.0008109700457366258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.001293368645347873</v>
+        <v>0.001521705716741882</v>
       </c>
       <c r="C100">
-        <v>0.0007483525539543825</v>
+        <v>0.0009233760073548308</v>
       </c>
       <c r="D100">
-        <v>0.001042314956320924</v>
+        <v>0.00104314267747309</v>
       </c>
       <c r="E100">
-        <v>0.001177133178820531</v>
+        <v>0.001162741983935583</v>
       </c>
       <c r="F100">
-        <v>0.0008668148162030235</v>
+        <v>0.0008728694726097882</v>
       </c>
       <c r="G100">
-        <v>0.0006019300027372095</v>
+        <v>0.0006809858961682907</v>
       </c>
       <c r="H100">
-        <v>0.0006405379622917052</v>
-      </c>
-      <c r="I100">
-        <v>0.0007848555805915885</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.0007604414313330143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.001549974483605637</v>
+        <v>0.0019183772679479</v>
       </c>
       <c r="C101">
-        <v>0.001460840606792382</v>
+        <v>0.00179411022411997</v>
       </c>
       <c r="D101">
-        <v>0.002737104605620568</v>
+        <v>0.002640693262788251</v>
       </c>
       <c r="E101">
-        <v>0.00225778887000713</v>
+        <v>0.002248760528889578</v>
       </c>
       <c r="F101">
-        <v>0.002745966425245382</v>
+        <v>0.002743945251334174</v>
       </c>
       <c r="G101">
-        <v>0.001724983177825053</v>
+        <v>0.002151059603614087</v>
       </c>
       <c r="H101">
-        <v>0.001505953882147384</v>
-      </c>
-      <c r="I101">
-        <v>0.001677547795883143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.001847520764746186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.002170351661068016</v>
+        <v>0.002624539402370747</v>
       </c>
       <c r="C102">
-        <v>0.002439163178041775</v>
+        <v>0.003041644983606829</v>
       </c>
       <c r="D102">
-        <v>0.003991783471835475</v>
+        <v>0.003955893400414703</v>
       </c>
       <c r="E102">
-        <v>0.003735157986710998</v>
+        <v>0.003643864731124602</v>
       </c>
       <c r="F102">
-        <v>0.00409671733557927</v>
+        <v>0.00408474146410895</v>
       </c>
       <c r="G102">
-        <v>0.002950945666523513</v>
+        <v>0.003679839839021191</v>
       </c>
       <c r="H102">
-        <v>0.002302658240997113</v>
-      </c>
-      <c r="I102">
-        <v>0.002582291843265671</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.002792849418636559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.001150904239934171</v>
+        <v>0.001384134335109866</v>
       </c>
       <c r="C103">
-        <v>0.0006298105399390581</v>
+        <v>0.0007422813392849605</v>
       </c>
       <c r="D103">
-        <v>0.001376203530891988</v>
+        <v>0.001366263643179143</v>
       </c>
       <c r="E103">
-        <v>0.001235698943881096</v>
+        <v>0.001233002509689597</v>
       </c>
       <c r="F103">
-        <v>0.001368794398345402</v>
+        <v>0.001363067010983111</v>
       </c>
       <c r="G103">
-        <v>0.0009345224954311718</v>
+        <v>0.001133897316581488</v>
       </c>
       <c r="H103">
-        <v>0.0008879158664028703</v>
-      </c>
-      <c r="I103">
-        <v>0.0009039377302868986</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.001107233244158197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.0002426467365121135</v>
+        <v>0.000302580001184493</v>
       </c>
       <c r="C104">
-        <v>0.0004424417977340395</v>
+        <v>0.0004974994773881164</v>
       </c>
       <c r="D104">
-        <v>0.0008873912221582423</v>
+        <v>0.001011282931282594</v>
       </c>
       <c r="E104">
-        <v>0.001015610648222262</v>
+        <v>0.001140543299643741</v>
       </c>
       <c r="F104">
-        <v>0.0004048514509127398</v>
+        <v>0.0004844848790649616</v>
       </c>
       <c r="G104">
-        <v>0.0007382457830973967</v>
+        <v>0.0008013036345009754</v>
       </c>
       <c r="H104">
-        <v>0.0005894450656320349</v>
-      </c>
-      <c r="I104">
-        <v>0.000395899511296032</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.0006564655849698661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.0004948100900083771</v>
+        <v>0.0005588447475689217</v>
       </c>
       <c r="C105">
-        <v>0.0001989154267987001</v>
+        <v>0.0002110135836928034</v>
       </c>
       <c r="D105">
-        <v>0.0001878193266579379</v>
+        <v>0.0002161401480042181</v>
       </c>
       <c r="E105">
-        <v>0.0002186704316695684</v>
+        <v>0.000259918939596309</v>
       </c>
       <c r="F105">
-        <v>0.0004044934174782711</v>
+        <v>0.0004216927659989904</v>
       </c>
       <c r="G105">
-        <v>0.0002840589178504227</v>
+        <v>0.0002891153296411015</v>
       </c>
       <c r="H105">
-        <v>0.0002041548876110265</v>
-      </c>
-      <c r="I105">
-        <v>0.0002452066332739389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.0002226847851831321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0007693545758585868</v>
+        <v>0.0008420415319688301</v>
       </c>
       <c r="C106">
-        <v>0.0005600040111850944</v>
+        <v>0.0006538398464961439</v>
       </c>
       <c r="D106">
-        <v>0.0006786925689416392</v>
+        <v>0.0007482804786787482</v>
       </c>
       <c r="E106">
-        <v>0.0007777254478628032</v>
+        <v>0.0008439597274393521</v>
       </c>
       <c r="F106">
-        <v>0.001026735735711657</v>
+        <v>0.001125054803697483</v>
       </c>
       <c r="G106">
-        <v>0.0004936714437581083</v>
+        <v>0.0005928365355250954</v>
       </c>
       <c r="H106">
-        <v>0.0006731115641105727</v>
-      </c>
-      <c r="I106">
-        <v>0.0005263184362814699</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.0007468689603670227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.00040100038890354</v>
+        <v>0.0004720475332660568</v>
       </c>
       <c r="C107">
-        <v>0.0003707449680863705</v>
+        <v>0.0004529548240726269</v>
       </c>
       <c r="D107">
-        <v>0.0004053430554479259</v>
+        <v>0.000472767268638643</v>
       </c>
       <c r="E107">
-        <v>0.0004107383023720471</v>
+        <v>0.0004785279361709263</v>
       </c>
       <c r="F107">
-        <v>0.001471620919068849</v>
+        <v>0.001561230894952237</v>
       </c>
       <c r="G107">
-        <v>0.0005353032440981759</v>
+        <v>0.0005897805808447058</v>
       </c>
       <c r="H107">
-        <v>0.0004140960658543282</v>
-      </c>
-      <c r="I107">
-        <v>0.000383537703661306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.0004934678768344223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.0007290853321144214</v>
+        <v>0.000792673630602505</v>
       </c>
       <c r="C108">
-        <v>0.0004434473340675848</v>
+        <v>0.0005028992635831546</v>
       </c>
       <c r="D108">
-        <v>0.000562236855747609</v>
+        <v>0.0006227074888250148</v>
       </c>
       <c r="E108">
-        <v>0.0005270865726108566</v>
+        <v>0.0005920023350875551</v>
       </c>
       <c r="F108">
-        <v>0.0005652872899316613</v>
+        <v>0.000621321428492124</v>
       </c>
       <c r="G108">
-        <v>0.0004004378575558404</v>
+        <v>0.0004642200632974871</v>
       </c>
       <c r="H108">
-        <v>0.0005982944185383535</v>
-      </c>
-      <c r="I108">
-        <v>0.0004222046728549182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.0006485688979708308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0004265005844895467</v>
+        <v>0.0004986777707688453</v>
       </c>
       <c r="C109">
-        <v>0.0003761266043089445</v>
+        <v>0.0004472018285616418</v>
       </c>
       <c r="D109">
-        <v>0.0004075334702317143</v>
+        <v>0.000479038482811755</v>
       </c>
       <c r="E109">
-        <v>0.0004366184119027156</v>
+        <v>0.0005091569622902934</v>
       </c>
       <c r="F109">
-        <v>0.001530085313541593</v>
+        <v>0.001626275539858175</v>
       </c>
       <c r="G109">
-        <v>0.0004322782214651501</v>
+        <v>0.0004903360360545896</v>
       </c>
       <c r="H109">
-        <v>0.0004044471961566533</v>
-      </c>
-      <c r="I109">
-        <v>0.000385656747550123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.0004733622016882409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.0008212290928652642</v>
+        <v>0.0009012880302597259</v>
       </c>
       <c r="C110">
-        <v>0.0006149544789426812</v>
+        <v>0.0007421724264349012</v>
       </c>
       <c r="D110">
-        <v>0.0008225211166133011</v>
+        <v>0.0009019477625318113</v>
       </c>
       <c r="E110">
-        <v>0.0009098538426801854</v>
+        <v>0.0009919914327225473</v>
       </c>
       <c r="F110">
-        <v>0.001467917287633869</v>
+        <v>0.001608116713073387</v>
       </c>
       <c r="G110">
-        <v>0.0005646937719685393</v>
+        <v>0.0006839304616926724</v>
       </c>
       <c r="H110">
-        <v>0.0008665555867709832</v>
-      </c>
-      <c r="I110">
-        <v>0.0006174912384652492</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.0009670186482049485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0004703461940453039</v>
+        <v>0.000497385947701759</v>
       </c>
       <c r="C111">
-        <v>0.0003719610204183041</v>
+        <v>0.0004559216041461706</v>
       </c>
       <c r="D111">
-        <v>0.0006293091673058339</v>
+        <v>0.0006504430514088137</v>
       </c>
       <c r="E111">
-        <v>0.0007683172588044642</v>
+        <v>0.0007960518394662266</v>
       </c>
       <c r="F111">
-        <v>0.000357906663650305</v>
+        <v>0.0004355118122417869</v>
       </c>
       <c r="G111">
-        <v>0.0007060070504239704</v>
+        <v>0.00080767179308789</v>
       </c>
       <c r="H111">
-        <v>0.0003535088154437766</v>
-      </c>
-      <c r="I111">
-        <v>0.000397620493246786</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.0004219191387171086</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0003395076120965739</v>
+        <v>0.0003612945216840134</v>
       </c>
       <c r="C112">
-        <v>0.0003874429742014397</v>
+        <v>0.0004751772763922365</v>
       </c>
       <c r="D112">
-        <v>0.0008121229163727142</v>
+        <v>0.0008352243947873411</v>
       </c>
       <c r="E112">
-        <v>0.0004601069367047826</v>
+        <v>0.0004663252143810999</v>
       </c>
       <c r="F112">
-        <v>0.0003329336241917429</v>
+        <v>0.0003537456921535903</v>
       </c>
       <c r="G112">
-        <v>0.0004694553638889473</v>
+        <v>0.0005563768574761799</v>
       </c>
       <c r="H112">
-        <v>0.000350817516036827</v>
-      </c>
-      <c r="I112">
-        <v>0.0003764754480051339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.0004134304977647477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.0002792828342083096</v>
+        <v>0.0003302243352779279</v>
       </c>
       <c r="C113">
-        <v>0.0001801384902484455</v>
+        <v>0.0001950673065934605</v>
       </c>
       <c r="D113">
-        <v>0.0002828689113528756</v>
+        <v>0.0002891676487301165</v>
       </c>
       <c r="E113">
-        <v>0.000446056927014309</v>
+        <v>0.0004591854579432135</v>
       </c>
       <c r="F113">
-        <v>0.0001929080503304675</v>
+        <v>0.0002280638734410185</v>
       </c>
       <c r="G113">
-        <v>0.0001693394009264067</v>
+        <v>0.0001871011345415858</v>
       </c>
       <c r="H113">
-        <v>0.0001791936936506603</v>
-      </c>
-      <c r="I113">
-        <v>0.0001990868392789432</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.0002199827037105596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.0004451375614475247</v>
+        <v>0.0004894340089918282</v>
       </c>
       <c r="C114">
-        <v>0.0002699938026523723</v>
+        <v>0.0003053226970834319</v>
       </c>
       <c r="D114">
-        <v>0.0002928243739436307</v>
+        <v>0.0003247191748345934</v>
       </c>
       <c r="E114">
-        <v>0.0002863617118944083</v>
+        <v>0.000314481111532467</v>
       </c>
       <c r="F114">
-        <v>0.0004364802961900115</v>
+        <v>0.0004810446227002647</v>
       </c>
       <c r="G114">
-        <v>0.000566437657850985</v>
+        <v>0.0006219078570533907</v>
       </c>
       <c r="H114">
-        <v>0.0002893757424847421</v>
-      </c>
-      <c r="I114">
-        <v>0.0002761290531459851</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.0003442726151608076</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.0004081604532967985</v>
+        <v>0.000508109910964607</v>
       </c>
       <c r="C115">
-        <v>0.0003739831885834746</v>
+        <v>0.0004520683031999706</v>
       </c>
       <c r="D115">
-        <v>0.0009965570984555559</v>
+        <v>0.001014538678572163</v>
       </c>
       <c r="E115">
-        <v>0.001027529082454848</v>
+        <v>0.001047053845288402</v>
       </c>
       <c r="F115">
-        <v>0.0004149880437225209</v>
+        <v>0.0004856402099527507</v>
       </c>
       <c r="G115">
-        <v>0.0003527787746678358</v>
+        <v>0.0004253008179042719</v>
       </c>
       <c r="H115">
-        <v>0.0003947865933260777</v>
-      </c>
-      <c r="I115">
-        <v>0.0004277753229093784</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.0004829410475258371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.0001134015938573938</v>
+        <v>0.0001140822584229359</v>
       </c>
       <c r="C116">
-        <v>0.0001310096616828864</v>
+        <v>0.0001559986754071484</v>
       </c>
       <c r="D116">
-        <v>0.0001711375692044466</v>
+        <v>0.0001716124937968681</v>
       </c>
       <c r="E116">
-        <v>0.0001486937622139761</v>
+        <v>0.0001461944736873085</v>
       </c>
       <c r="F116">
-        <v>0.0001267047044557229</v>
+        <v>0.0001298485588034026</v>
       </c>
       <c r="G116">
-        <v>0.0001015856110494406</v>
+        <v>0.0001100322843352317</v>
       </c>
       <c r="H116">
-        <v>0.0002239414165131102</v>
-      </c>
-      <c r="I116">
-        <v>0.0001447985649977769</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.0002592159555969164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.001704951500802488</v>
+        <v>0.00199526369296889</v>
       </c>
       <c r="C117">
-        <v>0.001240787925585367</v>
+        <v>0.001503610657592776</v>
       </c>
       <c r="D117">
-        <v>0.001883095615898426</v>
+        <v>0.00201796037386204</v>
       </c>
       <c r="E117">
-        <v>0.00187601813176785</v>
+        <v>0.001956295925614307</v>
       </c>
       <c r="F117">
-        <v>0.003152106815009333</v>
+        <v>0.003298629396030556</v>
       </c>
       <c r="G117">
-        <v>0.001419043941102417</v>
+        <v>0.001687284236082559</v>
       </c>
       <c r="H117">
-        <v>0.001489141093707032</v>
-      </c>
-      <c r="I117">
-        <v>0.001354936924633503</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.001769533336240414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0017056486448897</v>
+        <v>0.001984856291401581</v>
       </c>
       <c r="C118">
-        <v>0.001234821979119216</v>
+        <v>0.001491962102710877</v>
       </c>
       <c r="D118">
-        <v>0.001898772290393349</v>
+        <v>0.002002747615502361</v>
       </c>
       <c r="E118">
-        <v>0.001736691057224223</v>
+        <v>0.001848499692131237</v>
       </c>
       <c r="F118">
-        <v>0.003034786445554009</v>
+        <v>0.00320118968803443</v>
       </c>
       <c r="G118">
-        <v>0.001139365109443887</v>
+        <v>0.001419817464928477</v>
       </c>
       <c r="H118">
-        <v>0.001367046575619749</v>
-      </c>
-      <c r="I118">
-        <v>0.001232591700949278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.001623994995302341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001546772803187476</v>
+        <v>0.001802367221467193</v>
       </c>
       <c r="C119">
-        <v>0.00107512557246174</v>
+        <v>0.001316000824592886</v>
       </c>
       <c r="D119">
-        <v>0.001830892523653393</v>
+        <v>0.001941014666560288</v>
       </c>
       <c r="E119">
-        <v>0.001512568600981532</v>
+        <v>0.001679288158046532</v>
       </c>
       <c r="F119">
-        <v>0.00294754080106714</v>
+        <v>0.003120270654723636</v>
       </c>
       <c r="G119">
-        <v>0.001041436940050324</v>
+        <v>0.001277602030792532</v>
       </c>
       <c r="H119">
-        <v>0.001278464726701792</v>
-      </c>
-      <c r="I119">
-        <v>0.001096068302727154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.001504006236941859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.001793542429760053</v>
+        <v>0.002062476182428953</v>
       </c>
       <c r="C120">
-        <v>0.001096838017021203</v>
+        <v>0.001347345774761644</v>
       </c>
       <c r="D120">
-        <v>0.001801598064455306</v>
+        <v>0.001850496730640171</v>
       </c>
       <c r="E120">
-        <v>0.001545901374740141</v>
+        <v>0.001653220009197344</v>
       </c>
       <c r="F120">
-        <v>0.002337676177012082</v>
+        <v>0.002409767767588854</v>
       </c>
       <c r="G120">
-        <v>0.001068628827680567</v>
+        <v>0.001304113374497707</v>
       </c>
       <c r="H120">
-        <v>0.001281502880943491</v>
-      </c>
-      <c r="I120">
-        <v>0.00118093466309683</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.001524328597104152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0006056574794237555</v>
+        <v>0.0006261664819663487</v>
       </c>
       <c r="C121">
-        <v>0.0004667681072707544</v>
+        <v>0.0005318855715755313</v>
       </c>
       <c r="D121">
-        <v>0.0002177504762236408</v>
+        <v>0.0002426865035152062</v>
       </c>
       <c r="E121">
-        <v>0.0002246043319712774</v>
+        <v>0.0002534458574309301</v>
       </c>
       <c r="F121">
-        <v>0.0004787450842056392</v>
+        <v>0.0004902440297248254</v>
       </c>
       <c r="G121">
-        <v>0.0002330944361317982</v>
+        <v>0.000277939534759853</v>
       </c>
       <c r="H121">
-        <v>0.0002212544719190061</v>
-      </c>
-      <c r="I121">
-        <v>0.0002988781748699709</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.0002574405545357285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001830309965586535</v>
+        <v>0.002141719743381012</v>
       </c>
       <c r="C122">
-        <v>0.001576687007659474</v>
+        <v>0.001874310290484195</v>
       </c>
       <c r="D122">
-        <v>0.002379203979196947</v>
+        <v>0.00252123671460832</v>
       </c>
       <c r="E122">
-        <v>0.002263291803462341</v>
+        <v>0.002360293511232033</v>
       </c>
       <c r="F122">
-        <v>0.003180301239302886</v>
+        <v>0.003335909294603708</v>
       </c>
       <c r="G122">
-        <v>0.001558183673155737</v>
+        <v>0.001878410288611446</v>
       </c>
       <c r="H122">
-        <v>0.001843450677375477</v>
-      </c>
-      <c r="I122">
-        <v>0.001598374922098053</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.002140392529543138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.000497021594118837</v>
+        <v>0.0005774218799027715</v>
       </c>
       <c r="C123">
-        <v>0.0003407898591916886</v>
+        <v>0.0003631940204615658</v>
       </c>
       <c r="D123">
-        <v>0.0005018011794960466</v>
+        <v>0.0005229554628179009</v>
       </c>
       <c r="E123">
-        <v>0.0006201508315397896</v>
+        <v>0.0006436832937212247</v>
       </c>
       <c r="F123">
-        <v>0.0005313124609018795</v>
+        <v>0.000621438491068694</v>
       </c>
       <c r="G123">
-        <v>0.0003010244940564412</v>
+        <v>0.0003469269699092917</v>
       </c>
       <c r="H123">
-        <v>0.00031355089903149</v>
-      </c>
-      <c r="I123">
-        <v>0.0003488785910676955</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.0003620882145447187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.000563708731677992</v>
+        <v>0.0005849348743563588</v>
       </c>
       <c r="C124">
-        <v>0.0002682186180166888</v>
+        <v>0.0003169987129562663</v>
       </c>
       <c r="D124">
-        <v>0.0003403737171475052</v>
+        <v>0.0003524313731995053</v>
       </c>
       <c r="E124">
-        <v>0.0002739979905782316</v>
+        <v>0.0003021407276259138</v>
       </c>
       <c r="F124">
-        <v>0.0003777303055914721</v>
+        <v>0.0004519068140921388</v>
       </c>
       <c r="G124">
-        <v>0.0004796008534209648</v>
+        <v>0.0005472046279746624</v>
       </c>
       <c r="H124">
-        <v>0.0002951537935156337</v>
-      </c>
-      <c r="I124">
-        <v>0.0003010299904228201</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.0003096929970981656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.00043978833148612</v>
+        <v>0.0004517940709021572</v>
       </c>
       <c r="C125">
-        <v>0.0002845209273051574</v>
+        <v>0.0003455770371486665</v>
       </c>
       <c r="D125">
-        <v>0.0003582544585176223</v>
+        <v>0.0003771404414816756</v>
       </c>
       <c r="E125">
-        <v>0.0004423768795027945</v>
+        <v>0.0004571724035162965</v>
       </c>
       <c r="F125">
-        <v>0.0004388535035556343</v>
+        <v>0.0005023163954562573</v>
       </c>
       <c r="G125">
-        <v>0.0004892465195146132</v>
+        <v>0.0005483320234698538</v>
       </c>
       <c r="H125">
-        <v>0.0002765648494060972</v>
-      </c>
-      <c r="I125">
-        <v>0.0003107464552829652</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.0003339961785473643</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.0002839863020782236</v>
+        <v>0.0002922417073418579</v>
       </c>
       <c r="C126">
-        <v>0.0002410305376861854</v>
+        <v>0.000286647142371039</v>
       </c>
       <c r="D126">
-        <v>0.0002508012901353194</v>
+        <v>0.0002596006711518075</v>
       </c>
       <c r="E126">
-        <v>0.0003906200697118662</v>
+        <v>0.0004040637799279965</v>
       </c>
       <c r="F126">
-        <v>0.0001650052029685418</v>
+        <v>0.0001970128088543454</v>
       </c>
       <c r="G126">
-        <v>0.0002691562525052052</v>
+        <v>0.0003098014868367667</v>
       </c>
       <c r="H126">
-        <v>0.0002006926812030811</v>
-      </c>
-      <c r="I126">
-        <v>0.0001984412273498727</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.0002493957604034883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.0002589853123855333</v>
+        <v>0.0002672806779579187</v>
       </c>
       <c r="C127">
-        <v>0.000145423778273971</v>
+        <v>0.0001619201175615282</v>
       </c>
       <c r="D127">
-        <v>0.0001764951451336451</v>
+        <v>0.0001834730159356725</v>
       </c>
       <c r="E127">
-        <v>0.0001802453900233171</v>
+        <v>0.0001859420023576721</v>
       </c>
       <c r="F127">
-        <v>0.0001826752282039034</v>
+        <v>0.0002166833758338947</v>
       </c>
       <c r="G127">
-        <v>0.0002059825746412077</v>
+        <v>0.0002368394451258084</v>
       </c>
       <c r="H127">
-        <v>0.0001540011390268198</v>
-      </c>
-      <c r="I127">
-        <v>0.0001476326914496304</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.0001896188808331029</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.0003697058515664774</v>
+        <v>0.000400898313684853</v>
       </c>
       <c r="C128">
-        <v>0.0002945080494578439</v>
+        <v>0.0003294779377995743</v>
       </c>
       <c r="D128">
-        <v>0.00055275941801895</v>
+        <v>0.0005956360927051271</v>
       </c>
       <c r="E128">
-        <v>0.0003394032244994895</v>
+        <v>0.0003727558086930203</v>
       </c>
       <c r="F128">
-        <v>0.0002631929762474968</v>
+        <v>0.0003187696107657129</v>
       </c>
       <c r="G128">
-        <v>0.0002867598675955415</v>
+        <v>0.0003192679488587064</v>
       </c>
       <c r="H128">
-        <v>0.0003090100943655182</v>
-      </c>
-      <c r="I128">
-        <v>0.0002676084749849545</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.0003414251045586015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.0005716135144077658</v>
+        <v>0.000612767372022701</v>
       </c>
       <c r="C129">
-        <v>0.0002399759203576632</v>
+        <v>0.0002710495153285374</v>
       </c>
       <c r="D129">
-        <v>0.0002048556345586281</v>
+        <v>0.0002376290493278434</v>
       </c>
       <c r="E129">
-        <v>0.0002296610189675012</v>
+        <v>0.0002617076693157513</v>
       </c>
       <c r="F129">
-        <v>0.0001912178865836031</v>
+        <v>0.0002198379122185042</v>
       </c>
       <c r="G129">
-        <v>0.0003085906112486755</v>
+        <v>0.0003395804773779049</v>
       </c>
       <c r="H129">
-        <v>0.0001909108492104122</v>
-      </c>
-      <c r="I129">
-        <v>0.0001897485559216095</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.0002360414867034297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.0002445406763514735</v>
+        <v>0.0002577809899462282</v>
       </c>
       <c r="C130">
-        <v>0.0003412950032782893</v>
+        <v>0.0003934496711963267</v>
       </c>
       <c r="D130">
-        <v>0.0003227320370212387</v>
+        <v>0.0003296998861014634</v>
       </c>
       <c r="E130">
-        <v>0.0003152511804342345</v>
+        <v>0.0003217894718260647</v>
       </c>
       <c r="F130">
-        <v>0.0002184196339463358</v>
+        <v>0.0002329146913151898</v>
       </c>
       <c r="G130">
-        <v>0.0003819017884132509</v>
+        <v>0.00043402328603015</v>
       </c>
       <c r="H130">
-        <v>0.0002867274838942825</v>
-      </c>
-      <c r="I130">
-        <v>0.0002558217363743708</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.0003435935041581295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0002917018878738368</v>
+        <v>0.0003034995644309065</v>
       </c>
       <c r="C131">
-        <v>0.0003209979960743695</v>
+        <v>0.000370811400317448</v>
       </c>
       <c r="D131">
-        <v>0.0002927552808242947</v>
+        <v>0.0002995214756033197</v>
       </c>
       <c r="E131">
-        <v>0.0003099792914456032</v>
+        <v>0.0003191514593776014</v>
       </c>
       <c r="F131">
-        <v>0.0002318328945844177</v>
+        <v>0.0002462830365301646</v>
       </c>
       <c r="G131">
-        <v>0.0003521159880788903</v>
+        <v>0.0004037769586906138</v>
       </c>
       <c r="H131">
-        <v>0.0003434795519791573</v>
-      </c>
-      <c r="I131">
-        <v>0.0002671159203484478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.0003960217169768665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.188476185243192E-05</v>
+        <v>8.825972217439218E-05</v>
       </c>
       <c r="C132">
-        <v>7.903394725286026E-05</v>
+        <v>9.781438503110961E-05</v>
       </c>
       <c r="D132">
-        <v>0.0001552229494299109</v>
+        <v>0.0001557951692885959</v>
       </c>
       <c r="E132">
-        <v>0.0001488977372215937</v>
+        <v>0.0001489563025983615</v>
       </c>
       <c r="F132">
-        <v>6.601440114045607E-05</v>
+        <v>7.011215015726182E-05</v>
       </c>
       <c r="G132">
-        <v>9.079502722575731E-05</v>
+        <v>0.0001005282868421978</v>
       </c>
       <c r="H132">
-        <v>9.932821109921055E-05</v>
-      </c>
-      <c r="I132">
-        <v>8.349115240574244E-05</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.0001212623171345521</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>9.976532712140413E-05</v>
+        <v>0.0001173016397722102</v>
       </c>
       <c r="C133">
-        <v>0.0001248279695630418</v>
+        <v>0.0001556595171303688</v>
       </c>
       <c r="D133">
-        <v>8.185855898482523E-05</v>
+        <v>8.686542236240311E-05</v>
       </c>
       <c r="E133">
-        <v>7.770331888753825E-05</v>
+        <v>8.248901947898412E-05</v>
       </c>
       <c r="F133">
-        <v>7.898631332015623E-05</v>
+        <v>8.0399919207062E-05</v>
       </c>
       <c r="G133">
-        <v>0.0002424515616350448</v>
+        <v>0.0002446676292935907</v>
       </c>
       <c r="H133">
-        <v>8.814468992432774E-05</v>
-      </c>
-      <c r="I133">
-        <v>9.361419731901834E-05</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.0001056752432708383</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.0003711804862873195</v>
+        <v>0.0004183681617811309</v>
       </c>
       <c r="C134">
-        <v>0.0001759699341167981</v>
+        <v>0.0002056053002781456</v>
       </c>
       <c r="D134">
-        <v>0.0001717566937744011</v>
+        <v>0.000197434414696315</v>
       </c>
       <c r="E134">
-        <v>0.0001705175400584251</v>
+        <v>0.0002023340833299217</v>
       </c>
       <c r="F134">
-        <v>0.0007073892411208899</v>
+        <v>0.0007515256211039897</v>
       </c>
       <c r="G134">
-        <v>0.0001856775723635087</v>
+        <v>0.0002167320882332072</v>
       </c>
       <c r="H134">
-        <v>0.0002079303005462855</v>
-      </c>
-      <c r="I134">
-        <v>0.0001875716063118622</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.0002561633242164962</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0001643743211496261</v>
+        <v>0.0001700560738724058</v>
       </c>
       <c r="C135">
-        <v>0.0001621363826725693</v>
+        <v>0.0001975460743833459</v>
       </c>
       <c r="D135">
-        <v>0.0002081016376150836</v>
+        <v>0.0002138848070070992</v>
       </c>
       <c r="E135">
-        <v>0.0001953729866500979</v>
+        <v>0.0002009222729965634</v>
       </c>
       <c r="F135">
-        <v>0.0001204034321197266</v>
+        <v>0.0001300367610174113</v>
       </c>
       <c r="G135">
-        <v>0.0003816096464586152</v>
+        <v>0.0004269515666166573</v>
       </c>
       <c r="H135">
-        <v>0.0002181300921702094</v>
-      </c>
-      <c r="I135">
-        <v>0.0001670986740456318</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.0002605473521622827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.0004722674394807925</v>
+        <v>0.0005460760954980926</v>
       </c>
       <c r="C136">
-        <v>0.0002158750437010147</v>
+        <v>0.000231504435174705</v>
       </c>
       <c r="D136">
-        <v>0.0003210015883965259</v>
+        <v>0.0003146616791446774</v>
       </c>
       <c r="E136">
-        <v>0.0002996767454635831</v>
+        <v>0.0002904440489169997</v>
       </c>
       <c r="F136">
-        <v>0.0002372186765024572</v>
+        <v>0.0002818779648056792</v>
       </c>
       <c r="G136">
-        <v>0.0002730669465242092</v>
+        <v>0.000270411470819382</v>
       </c>
       <c r="H136">
-        <v>0.000237273484521851</v>
-      </c>
-      <c r="I136">
-        <v>0.000277259640765503</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.000283596044237639</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.0006276647987111594</v>
+        <v>0.0007195673407311826</v>
       </c>
       <c r="C137">
-        <v>0.0003129549105485175</v>
+        <v>0.0003599528731504189</v>
       </c>
       <c r="D137">
-        <v>0.0003833039332831588</v>
+        <v>0.0003850923340049662</v>
       </c>
       <c r="E137">
-        <v>0.000403712450282743</v>
+        <v>0.0004032590150333846</v>
       </c>
       <c r="F137">
-        <v>0.0004385872688506084</v>
+        <v>0.0004395513684571931</v>
       </c>
       <c r="G137">
-        <v>0.0002988012670115844</v>
+        <v>0.0003345692607991743</v>
       </c>
       <c r="H137">
-        <v>0.0004199971486945983</v>
-      </c>
-      <c r="I137">
-        <v>0.0003640324304233571</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.0005016933010704303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.0007193481245217318</v>
+        <v>0.0008266716184856692</v>
       </c>
       <c r="C138">
-        <v>0.0003715593662439348</v>
+        <v>0.0004377278839181083</v>
       </c>
       <c r="D138">
-        <v>0.000522445781593185</v>
+        <v>0.0005298369063820504</v>
       </c>
       <c r="E138">
-        <v>0.0005208337094539297</v>
+        <v>0.0005321182945305614</v>
       </c>
       <c r="F138">
-        <v>0.0005818425847594069</v>
+        <v>0.0005920642758294642</v>
       </c>
       <c r="G138">
-        <v>0.0003588112032238097</v>
+        <v>0.0004295196230309924</v>
       </c>
       <c r="H138">
-        <v>0.0004409024867041866</v>
-      </c>
-      <c r="I138">
-        <v>0.0004043066546939763</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.0005320370317405904</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.0009087271133769694</v>
+        <v>0.001042574602177026</v>
       </c>
       <c r="C139">
-        <v>0.0004763641760440249</v>
+        <v>0.0005711945863475286</v>
       </c>
       <c r="D139">
-        <v>0.0006887466377213162</v>
+        <v>0.0006861497060092088</v>
       </c>
       <c r="E139">
-        <v>0.0006571763667785125</v>
+        <v>0.0006583239314338615</v>
       </c>
       <c r="F139">
-        <v>0.0006994115066050885</v>
+        <v>0.0007016365057998191</v>
       </c>
       <c r="G139">
-        <v>0.0004538847948119233</v>
+        <v>0.0005239083587019656</v>
       </c>
       <c r="H139">
-        <v>0.0005050424958773838</v>
-      </c>
-      <c r="I139">
-        <v>0.0005327448855110009</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.0006254199799317208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.000624891614594562</v>
+        <v>0.0007330267008814752</v>
       </c>
       <c r="C140">
-        <v>0.0005202602927791138</v>
+        <v>0.0006283766379630229</v>
       </c>
       <c r="D140">
-        <v>0.0006254490708577433</v>
+        <v>0.0006321442896944669</v>
       </c>
       <c r="E140">
-        <v>0.0006756508344410048</v>
+        <v>0.0006838881812045834</v>
       </c>
       <c r="F140">
-        <v>0.0007210143899893718</v>
+        <v>0.0007346274716492471</v>
       </c>
       <c r="G140">
-        <v>0.0004255990481894322</v>
+        <v>0.0005152197944053714</v>
       </c>
       <c r="H140">
-        <v>0.0004271506047273028</v>
-      </c>
-      <c r="I140">
-        <v>0.0004515207089987335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.0005226464320062379</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.0003769306708057965</v>
+        <v>0.000406646348236024</v>
       </c>
       <c r="C141">
-        <v>0.0001479380199775314</v>
+        <v>0.0001775722508946379</v>
       </c>
       <c r="D141">
-        <v>0.0001694339829000025</v>
+        <v>0.000185127134670756</v>
       </c>
       <c r="E141">
-        <v>0.000131330614589307</v>
+        <v>0.0001471195549887268</v>
       </c>
       <c r="F141">
-        <v>7.910689187477259E-05</v>
+        <v>8.959914863848561E-05</v>
       </c>
       <c r="G141">
-        <v>0.0001613799345208187</v>
+        <v>0.000174252618033807</v>
       </c>
       <c r="H141">
-        <v>0.000134402853038078</v>
-      </c>
-      <c r="I141">
-        <v>0.0001235028786918643</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.0001627328698684291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.0005674089315627643</v>
+        <v>0.0007007562825953858</v>
       </c>
       <c r="C142">
-        <v>0.0006195131557247887</v>
+        <v>0.0007302976529309149</v>
       </c>
       <c r="D142">
-        <v>0.001388936997726254</v>
+        <v>0.001463633440452047</v>
       </c>
       <c r="E142">
-        <v>0.001546076308461363</v>
+        <v>0.001617268111738481</v>
       </c>
       <c r="F142">
-        <v>0.0005380620024759731</v>
+        <v>0.0006542456598940956</v>
       </c>
       <c r="G142">
-        <v>0.000596001740830839</v>
+        <v>0.0006993711663724125</v>
       </c>
       <c r="H142">
-        <v>0.0005806170954433086</v>
-      </c>
-      <c r="I142">
-        <v>0.0005645135653111727</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.0007087627363944075</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.0004444349611283086</v>
+        <v>0.0005240621533294431</v>
       </c>
       <c r="C143">
-        <v>0.0005370697359321677</v>
+        <v>0.0006565507048322508</v>
       </c>
       <c r="D143">
-        <v>0.0005704855538260924</v>
+        <v>0.0005741450912506902</v>
       </c>
       <c r="E143">
-        <v>0.0006670112462675133</v>
+        <v>0.0006748634268085262</v>
       </c>
       <c r="F143">
-        <v>0.0009645929803685819</v>
+        <v>0.000983220785034471</v>
       </c>
       <c r="G143">
-        <v>0.0003598271042544884</v>
+        <v>0.0004383505365427448</v>
       </c>
       <c r="H143">
-        <v>0.000535520990254316</v>
-      </c>
-      <c r="I143">
-        <v>0.0004638058385445262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.0006568990595603953</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.0004055260551041502</v>
+        <v>0.0004693981395830637</v>
       </c>
       <c r="C144">
-        <v>0.0004188339215965004</v>
+        <v>0.00046984941480986</v>
       </c>
       <c r="D144">
-        <v>0.0007051850594487585</v>
+        <v>0.0007341630975885517</v>
       </c>
       <c r="E144">
-        <v>0.0009214662068032618</v>
+        <v>0.0009529579021444807</v>
       </c>
       <c r="F144">
-        <v>0.000558718489252949</v>
+        <v>0.0006625265734019658</v>
       </c>
       <c r="G144">
-        <v>0.0005228478455184953</v>
+        <v>0.0006093298326387359</v>
       </c>
       <c r="H144">
-        <v>0.0003778363495668227</v>
-      </c>
-      <c r="I144">
-        <v>0.0004167193355407241</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.0004584279499643907</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.0002994236770077546</v>
+        <v>0.0003687131714818266</v>
       </c>
       <c r="C145">
-        <v>0.0002470661451841011</v>
+        <v>0.0002946084299470706</v>
       </c>
       <c r="D145">
-        <v>0.0006117583080355385</v>
+        <v>0.0006188987343573613</v>
       </c>
       <c r="E145">
-        <v>0.0005160246925697296</v>
+        <v>0.0005157993174385595</v>
       </c>
       <c r="F145">
-        <v>0.0003106553261586139</v>
+        <v>0.0003318612681869946</v>
       </c>
       <c r="G145">
-        <v>0.000239491928571517</v>
+        <v>0.0002849725959753866</v>
       </c>
       <c r="H145">
-        <v>0.0002555305476331548</v>
-      </c>
-      <c r="I145">
-        <v>0.0002999570539132727</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.0003036088494822708</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.0005466153630457305</v>
+        <v>0.0006529878766123104</v>
       </c>
       <c r="C146">
-        <v>0.0005076258755792215</v>
+        <v>0.000585739972631721</v>
       </c>
       <c r="D146">
-        <v>0.001031637162346379</v>
+        <v>0.00107633089666554</v>
       </c>
       <c r="E146">
-        <v>0.001129506236702816</v>
+        <v>0.001183276647116534</v>
       </c>
       <c r="F146">
-        <v>0.0006128721192109456</v>
+        <v>0.0007235941054923133</v>
       </c>
       <c r="G146">
-        <v>0.0004573376651174835</v>
+        <v>0.0005462685495456652</v>
       </c>
       <c r="H146">
-        <v>0.000463362087681827</v>
-      </c>
-      <c r="I146">
-        <v>0.0004754658104342732</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.0005608637960947053</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0004525057114163203</v>
+        <v>0.0005302956818843897</v>
       </c>
       <c r="C147">
-        <v>0.0002833871561759369</v>
+        <v>0.0003038850116842924</v>
       </c>
       <c r="D147">
-        <v>0.0005251902774548892</v>
+        <v>0.0005288833098016192</v>
       </c>
       <c r="E147">
-        <v>0.0004670822958218228</v>
+        <v>0.0004696020909123332</v>
       </c>
       <c r="F147">
-        <v>0.0002809441948825678</v>
+        <v>0.0003074027968547536</v>
       </c>
       <c r="G147">
-        <v>0.0002666454773136553</v>
+        <v>0.0003095368997421219</v>
       </c>
       <c r="H147">
-        <v>0.0002732168531585324</v>
-      </c>
-      <c r="I147">
-        <v>0.0003226451783222999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.0003266342865780795</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001754876334560165</v>
+        <v>0.002188336492272469</v>
       </c>
       <c r="C148">
-        <v>0.001634843800231103</v>
+        <v>0.001986874186486438</v>
       </c>
       <c r="D148">
-        <v>0.003006709071713104</v>
+        <v>0.003014610831596915</v>
       </c>
       <c r="E148">
-        <v>0.00222959161358902</v>
+        <v>0.002234395299603582</v>
       </c>
       <c r="F148">
-        <v>0.003540270599575097</v>
+        <v>0.003571627634856482</v>
       </c>
       <c r="G148">
-        <v>0.001644632849808143</v>
+        <v>0.002050862416087461</v>
       </c>
       <c r="H148">
-        <v>0.001736667129837228</v>
-      </c>
-      <c r="I148">
-        <v>0.001744641519797725</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.002165629539539795</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001140879511753594</v>
+        <v>0.001393733667675617</v>
       </c>
       <c r="C149">
-        <v>0.0008699195516331001</v>
+        <v>0.001045533365137357</v>
       </c>
       <c r="D149">
-        <v>0.001488612844130975</v>
+        <v>0.001512982187225561</v>
       </c>
       <c r="E149">
-        <v>0.001442195716320139</v>
+        <v>0.001481262798063121</v>
       </c>
       <c r="F149">
-        <v>0.002130264448131067</v>
+        <v>0.002267627926066086</v>
       </c>
       <c r="G149">
-        <v>0.0009545674368891363</v>
+        <v>0.001177310387548987</v>
       </c>
       <c r="H149">
-        <v>0.00138004487857921</v>
-      </c>
-      <c r="I149">
-        <v>0.0009679495108165086</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.001644438629225674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001749595088218023</v>
+        <v>0.002167304977991804</v>
       </c>
       <c r="C150">
-        <v>0.00140935645144773</v>
+        <v>0.001714257239419283</v>
       </c>
       <c r="D150">
-        <v>0.00240786068206102</v>
+        <v>0.002483923984640337</v>
       </c>
       <c r="E150">
-        <v>0.002088163988338242</v>
+        <v>0.002109072076511885</v>
       </c>
       <c r="F150">
-        <v>0.003389126517890514</v>
+        <v>0.00342531139988657</v>
       </c>
       <c r="G150">
-        <v>0.001501348398091706</v>
+        <v>0.001872186119019197</v>
       </c>
       <c r="H150">
-        <v>0.001753915999844145</v>
-      </c>
-      <c r="I150">
-        <v>0.001525724267792403</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.002156730539236877</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001529640577639434</v>
+        <v>0.00186641782052448</v>
       </c>
       <c r="C151">
-        <v>0.001405124310093175</v>
+        <v>0.001650061672966691</v>
       </c>
       <c r="D151">
-        <v>0.003090578210489209</v>
+        <v>0.003156763430269229</v>
       </c>
       <c r="E151">
-        <v>0.004254535209982057</v>
+        <v>0.00439297382651873</v>
       </c>
       <c r="F151">
-        <v>0.001417149826734462</v>
+        <v>0.00170059432949961</v>
       </c>
       <c r="G151">
-        <v>0.00167297721029325</v>
+        <v>0.002086207949490271</v>
       </c>
       <c r="H151">
-        <v>0.001442176220964388</v>
-      </c>
-      <c r="I151">
-        <v>0.001459045126941765</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.001798398172232758</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.001480020223507246</v>
+        <v>0.00180454103606289</v>
       </c>
       <c r="C152">
-        <v>0.001355096461586601</v>
+        <v>0.001655643534453887</v>
       </c>
       <c r="D152">
-        <v>0.002056133009369849</v>
+        <v>0.002101761491677892</v>
       </c>
       <c r="E152">
-        <v>0.001841442423162885</v>
+        <v>0.001881501186743325</v>
       </c>
       <c r="F152">
-        <v>0.002973193154570187</v>
+        <v>0.00301252003707609</v>
       </c>
       <c r="G152">
-        <v>0.001321572845724882</v>
+        <v>0.001609321963142365</v>
       </c>
       <c r="H152">
-        <v>0.001332260406252602</v>
-      </c>
-      <c r="I152">
-        <v>0.001370594707066895</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.001638194547932694</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.002692713300929229</v>
+        <v>0.00335782302341529</v>
       </c>
       <c r="C153">
-        <v>0.002879487989720549</v>
+        <v>0.003590731823913438</v>
       </c>
       <c r="D153">
-        <v>0.004605500490937184</v>
+        <v>0.004639539791033582</v>
       </c>
       <c r="E153">
-        <v>0.00556866049773599</v>
+        <v>0.005577300017555901</v>
       </c>
       <c r="F153">
-        <v>0.005335375494135533</v>
+        <v>0.005377760368995363</v>
       </c>
       <c r="G153">
-        <v>0.003257895715620733</v>
+        <v>0.004062607805123694</v>
       </c>
       <c r="H153">
-        <v>0.002928475099712463</v>
-      </c>
-      <c r="I153">
-        <v>0.003003889573747172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.003651818950343269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.002555291935200031</v>
+        <v>0.003104561497932565</v>
       </c>
       <c r="C154">
-        <v>0.002149256289033773</v>
+        <v>0.002625904125866119</v>
       </c>
       <c r="D154">
-        <v>0.003528316345554255</v>
+        <v>0.003537846721590354</v>
       </c>
       <c r="E154">
-        <v>0.00298057466379948</v>
+        <v>0.003043889532423232</v>
       </c>
       <c r="F154">
-        <v>0.004764578732839534</v>
+        <v>0.00481671080966655</v>
       </c>
       <c r="G154">
-        <v>0.002497244358098208</v>
+        <v>0.002994782048694056</v>
       </c>
       <c r="H154">
-        <v>0.002246715716645366</v>
-      </c>
-      <c r="I154">
-        <v>0.002337631354544535</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.002801662212478611</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.000591186202160099</v>
+        <v>0.0006301864365894516</v>
       </c>
       <c r="C155">
-        <v>0.0001785391419785727</v>
+        <v>0.0002202638104731921</v>
       </c>
       <c r="D155">
-        <v>0.0001923376758061609</v>
+        <v>0.0002269554647674526</v>
       </c>
       <c r="E155">
-        <v>0.0001694706732654972</v>
+        <v>0.0002058896043924039</v>
       </c>
       <c r="F155">
-        <v>0.0002512642697180517</v>
+        <v>0.000280347957723565</v>
       </c>
       <c r="G155">
-        <v>0.0003682487614799172</v>
+        <v>0.0004082758260759717</v>
       </c>
       <c r="H155">
-        <v>0.0001762818475776963</v>
-      </c>
-      <c r="I155">
-        <v>0.0001754350367410423</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.0002127007717870614</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0003602208449965106</v>
+        <v>0.0003835894121631893</v>
       </c>
       <c r="C156">
-        <v>0.0001783272200672609</v>
+        <v>0.0002163578343405817</v>
       </c>
       <c r="D156">
-        <v>0.0001751842164778847</v>
+        <v>0.0002107098140621517</v>
       </c>
       <c r="E156">
-        <v>0.0002662242987026427</v>
+        <v>0.0002933723507510486</v>
       </c>
       <c r="F156">
-        <v>0.0003792617617795444</v>
+        <v>0.0004011161672827151</v>
       </c>
       <c r="G156">
-        <v>0.0002792774353997873</v>
+        <v>0.0003066217632877385</v>
       </c>
       <c r="H156">
-        <v>0.0001751641236614971</v>
-      </c>
-      <c r="I156">
-        <v>0.0001866260488956402</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.0002171519946980873</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.0004067066314257274</v>
+        <v>0.0004381211519649478</v>
       </c>
       <c r="C157">
-        <v>0.0001325277208796512</v>
+        <v>0.0001603327358772166</v>
       </c>
       <c r="D157">
-        <v>0.0002195731047457037</v>
+        <v>0.0002353902158394632</v>
       </c>
       <c r="E157">
-        <v>0.0001595490274985568</v>
+        <v>0.0001733924010119649</v>
       </c>
       <c r="F157">
-        <v>0.0001395498585895012</v>
+        <v>0.0001642367357835405</v>
       </c>
       <c r="G157">
-        <v>0.0001410519892221434</v>
+        <v>0.0001547663966406138</v>
       </c>
       <c r="H157">
-        <v>0.0001570193880639869</v>
-      </c>
-      <c r="I157">
-        <v>0.0001443621522511258</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.0001846514009807325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0002501927057721665</v>
+        <v>0.0002661540355594929</v>
       </c>
       <c r="C158">
-        <v>0.0001969379444710373</v>
+        <v>0.0002294752422714882</v>
       </c>
       <c r="D158">
-        <v>0.0001502516216775664</v>
+        <v>0.000177502149890303</v>
       </c>
       <c r="E158">
-        <v>0.00016390133047567</v>
+        <v>0.0001973874375799056</v>
       </c>
       <c r="F158">
-        <v>0.0002833641469613344</v>
+        <v>0.0002982995948180295</v>
       </c>
       <c r="G158">
-        <v>0.0003170516692741655</v>
+        <v>0.0003463799415473007</v>
       </c>
       <c r="H158">
-        <v>0.0001523740850235289</v>
-      </c>
-      <c r="I158">
-        <v>0.000152191265434525</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.0001830757883030038</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001409206620283543</v>
+        <v>0.001744645842350982</v>
       </c>
       <c r="C159">
-        <v>0.00116657954154789</v>
+        <v>0.001454727986301482</v>
       </c>
       <c r="D159">
-        <v>0.0020111859909995</v>
+        <v>0.002009367847611706</v>
       </c>
       <c r="E159">
-        <v>0.001816010493552755</v>
+        <v>0.001824149479661499</v>
       </c>
       <c r="F159">
-        <v>0.002080016714268033</v>
+        <v>0.002071310076007674</v>
       </c>
       <c r="G159">
-        <v>0.001284143309561451</v>
+        <v>0.001578554063939042</v>
       </c>
       <c r="H159">
-        <v>0.00108045685243422</v>
-      </c>
-      <c r="I159">
-        <v>0.001213421736391658</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.00133110526143201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0004753623587493493</v>
+        <v>0.000507888924021926</v>
       </c>
       <c r="C160">
-        <v>0.0002534141477506395</v>
+        <v>0.0003139375652718195</v>
       </c>
       <c r="D160">
-        <v>0.0003369095361467894</v>
+        <v>0.0003860858099223257</v>
       </c>
       <c r="E160">
-        <v>0.0002567104518902009</v>
+        <v>0.0003151193028692698</v>
       </c>
       <c r="F160">
-        <v>0.0005169701156379266</v>
+        <v>0.0005506475369818728</v>
       </c>
       <c r="G160">
-        <v>0.000592088300049619</v>
+        <v>0.0006463092425684746</v>
       </c>
       <c r="H160">
-        <v>0.0002643796806497944</v>
-      </c>
-      <c r="I160">
-        <v>0.0002587247604567385</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.0003190990115662682</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.0004057702691611681</v>
+        <v>0.0004267326620619196</v>
       </c>
       <c r="C161">
-        <v>0.0002566168494084618</v>
+        <v>0.000301748679238718</v>
       </c>
       <c r="D161">
-        <v>0.0001792019731141175</v>
+        <v>0.000215705221674262</v>
       </c>
       <c r="E161">
-        <v>0.0002147853989032393</v>
+        <v>0.000239531215894897</v>
       </c>
       <c r="F161">
-        <v>0.0002850109885795673</v>
+        <v>0.0003035945592514796</v>
       </c>
       <c r="G161">
-        <v>0.000372056929929424</v>
+        <v>0.0004154574879091477</v>
       </c>
       <c r="H161">
-        <v>0.0001848800429102248</v>
-      </c>
-      <c r="I161">
-        <v>0.0001933737747092183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.0002233096159968131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.0004603802669916109</v>
+        <v>0.0004886331858313712</v>
       </c>
       <c r="C162">
-        <v>0.000479204268848488</v>
+        <v>0.0005531676546709042</v>
       </c>
       <c r="D162">
-        <v>0.0003137886255546172</v>
+        <v>0.0003550799120473594</v>
       </c>
       <c r="E162">
-        <v>0.0003619784764180136</v>
+        <v>0.0003963652469458297</v>
       </c>
       <c r="F162">
-        <v>0.0007958080400385053</v>
+        <v>0.0008277927552889814</v>
       </c>
       <c r="G162">
-        <v>0.0005239508557900665</v>
+        <v>0.0005955629494095839</v>
       </c>
       <c r="H162">
-        <v>0.0003304032294167981</v>
-      </c>
-      <c r="I162">
-        <v>0.0003556492535124082</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.0004120127066041806</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.0006119239259363163</v>
+        <v>0.0006679076946484452</v>
       </c>
       <c r="C163">
-        <v>0.0002340979730692743</v>
+        <v>0.0002489514829836164</v>
       </c>
       <c r="D163">
-        <v>0.0001950352146890668</v>
+        <v>0.0002125460960009442</v>
       </c>
       <c r="E163">
-        <v>0.0002019357097106752</v>
+        <v>0.0002240319428072187</v>
       </c>
       <c r="F163">
-        <v>0.0001678602560407199</v>
+        <v>0.0001845430353963675</v>
       </c>
       <c r="G163">
-        <v>0.0002949227920641588</v>
+        <v>0.0003074729707367417</v>
       </c>
       <c r="H163">
-        <v>0.0003586976931495853</v>
-      </c>
-      <c r="I163">
-        <v>0.0002560113201760558</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.0004097080609216662</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.0004371039346231976</v>
+        <v>0.0004776856965072069</v>
       </c>
       <c r="C164">
-        <v>0.0002229760991810092</v>
+        <v>0.0002598080897588047</v>
       </c>
       <c r="D164">
-        <v>0.0002538776516876813</v>
+        <v>0.0002748036717430259</v>
       </c>
       <c r="E164">
-        <v>0.0002411572228871043</v>
+        <v>0.0002651814516291022</v>
       </c>
       <c r="F164">
-        <v>0.0002461107446618131</v>
+        <v>0.0002844860251399013</v>
       </c>
       <c r="G164">
-        <v>0.0003827979223693004</v>
+        <v>0.0004058307640926101</v>
       </c>
       <c r="H164">
-        <v>0.0002641823623601684</v>
-      </c>
-      <c r="I164">
-        <v>0.0002270788471332441</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.0003031586995541338</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0001877586322738514</v>
+        <v>0.0001891830766397957</v>
       </c>
       <c r="C165">
-        <v>8.934447359322215E-05</v>
+        <v>0.000105589489833015</v>
       </c>
       <c r="D165">
-        <v>9.143902965192275E-05</v>
+        <v>9.873927474281052E-05</v>
       </c>
       <c r="E165">
-        <v>0.0001053681188036241</v>
+        <v>0.0001066215972694809</v>
       </c>
       <c r="F165">
-        <v>0.0001077964024463677</v>
+        <v>0.0001091745593740945</v>
       </c>
       <c r="G165">
-        <v>8.501358888795886E-05</v>
+        <v>0.0001037498938622723</v>
       </c>
       <c r="H165">
-        <v>0.0001848063988954046</v>
-      </c>
-      <c r="I165">
-        <v>0.0001079933917720875</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.0002141325854589771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.0002874262073424947</v>
+        <v>0.0003237177398007326</v>
       </c>
       <c r="C166">
-        <v>0.0001820940518636446</v>
+        <v>0.0002053733214922585</v>
       </c>
       <c r="D166">
-        <v>0.0002872843527598129</v>
+        <v>0.0003032690764242626</v>
       </c>
       <c r="E166">
-        <v>0.0001468063227718674</v>
+        <v>0.0001721510298638737</v>
       </c>
       <c r="F166">
-        <v>0.0001730988996550315</v>
+        <v>0.0002158535642970948</v>
       </c>
       <c r="G166">
-        <v>0.0002720625075755145</v>
+        <v>0.0002837835391793346</v>
       </c>
       <c r="H166">
-        <v>0.0001717325496990949</v>
-      </c>
-      <c r="I166">
-        <v>0.0001552778509836487</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.0001982969012574402</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.0005568473005327385</v>
+        <v>0.0006815137017163186</v>
       </c>
       <c r="C167">
-        <v>0.000475648350094137</v>
+        <v>0.0005842350684000362</v>
       </c>
       <c r="D167">
-        <v>0.001011272856639308</v>
+        <v>0.00103447517505558</v>
       </c>
       <c r="E167">
-        <v>0.0009149263596697554</v>
+        <v>0.0009311792985901947</v>
       </c>
       <c r="F167">
-        <v>0.0006050253650421007</v>
+        <v>0.0006476521110089138</v>
       </c>
       <c r="G167">
-        <v>0.0004397046831226796</v>
+        <v>0.0005073821789309106</v>
       </c>
       <c r="H167">
-        <v>0.0004842674715210688</v>
-      </c>
-      <c r="I167">
-        <v>0.0004882550366257562</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.0006008786635475396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.000450503839486806</v>
+        <v>0.0004760281565969654</v>
       </c>
       <c r="C168">
-        <v>0.0003181455680224999</v>
+        <v>0.0003873170689179833</v>
       </c>
       <c r="D168">
-        <v>0.0004147517008990878</v>
+        <v>0.0004379149138510435</v>
       </c>
       <c r="E168">
-        <v>0.0004209875930920528</v>
+        <v>0.0004404629506816547</v>
       </c>
       <c r="F168">
-        <v>0.0003595181969293335</v>
+        <v>0.0004322112943405942</v>
       </c>
       <c r="G168">
-        <v>0.0007688969585577198</v>
+        <v>0.0008498906454641565</v>
       </c>
       <c r="H168">
-        <v>0.0004704085556320479</v>
-      </c>
-      <c r="I168">
-        <v>0.0003422936449577671</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.000543753840715784</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.0009713946334930724</v>
+        <v>0.001098244403068521</v>
       </c>
       <c r="C169">
-        <v>0.0002924833147818895</v>
+        <v>0.0003053994816741059</v>
       </c>
       <c r="D169">
-        <v>0.0002657024067261998</v>
+        <v>0.0002664431592362797</v>
       </c>
       <c r="E169">
-        <v>0.0003441895197893901</v>
+        <v>0.0003433611288269992</v>
       </c>
       <c r="F169">
-        <v>0.0003064633176779166</v>
+        <v>0.0003093642924135421</v>
       </c>
       <c r="G169">
-        <v>0.000331718822558019</v>
+        <v>0.0003350877673065448</v>
       </c>
       <c r="H169">
-        <v>0.0003011247111928933</v>
-      </c>
-      <c r="I169">
-        <v>0.0003950574332710364</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.0003573811824055761</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0003358762140699626</v>
+        <v>0.0003553136251525231</v>
       </c>
       <c r="C170">
-        <v>0.000206482145362711</v>
+        <v>0.0002420573920674757</v>
       </c>
       <c r="D170">
-        <v>0.0002496117047503355</v>
+        <v>0.0002652783463503177</v>
       </c>
       <c r="E170">
-        <v>0.0002598024232372118</v>
+        <v>0.0002743118541593954</v>
       </c>
       <c r="F170">
-        <v>0.0002635089844925521</v>
+        <v>0.0003043474115959593</v>
       </c>
       <c r="G170">
-        <v>0.0004356830987169484</v>
+        <v>0.0004815616219202577</v>
       </c>
       <c r="H170">
-        <v>0.0002306365811573257</v>
-      </c>
-      <c r="I170">
-        <v>0.0002209599808156862</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.0002726579580762293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0002459996438242942</v>
+        <v>0.0002580309582595244</v>
       </c>
       <c r="C171">
-        <v>0.0002610462661135004</v>
+        <v>0.0002932302839089595</v>
       </c>
       <c r="D171">
-        <v>0.0001750687529660136</v>
+        <v>0.0001890814207514738</v>
       </c>
       <c r="E171">
-        <v>0.00015452893885196</v>
+        <v>0.0001713507814548947</v>
       </c>
       <c r="F171">
-        <v>0.0001504573332075791</v>
+        <v>0.0001641647331891637</v>
       </c>
       <c r="G171">
-        <v>0.000364579799388816</v>
+        <v>0.0004087918525548613</v>
       </c>
       <c r="H171">
-        <v>0.0001536261404354394</v>
-      </c>
-      <c r="I171">
-        <v>0.0001753350658213721</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.0001738317241132742</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.0007538667849549981</v>
+        <v>0.0008598535385000657</v>
       </c>
       <c r="C172">
-        <v>0.000305190752791601</v>
+        <v>0.0003530968796336869</v>
       </c>
       <c r="D172">
-        <v>0.0004019411971407206</v>
+        <v>0.0003990619761058426</v>
       </c>
       <c r="E172">
-        <v>0.0003780499976701905</v>
+        <v>0.0003677842377102529</v>
       </c>
       <c r="F172">
-        <v>0.000383098496753687</v>
+        <v>0.0003774009093949639</v>
       </c>
       <c r="G172">
-        <v>0.0002925131562418597</v>
+        <v>0.0003001139796846988</v>
       </c>
       <c r="H172">
-        <v>0.0003429772388539979</v>
-      </c>
-      <c r="I172">
-        <v>0.0003916660885110536</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.0004177665368969384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.0001223412664165118</v>
+        <v>0.0001445577537623041</v>
       </c>
       <c r="C173">
-        <v>0.0001529006760075043</v>
+        <v>0.0001791750161888484</v>
       </c>
       <c r="D173">
-        <v>0.000112012002114481</v>
+        <v>0.000125028112566712</v>
       </c>
       <c r="E173">
-        <v>0.0001594092652057155</v>
+        <v>0.0001683202814101004</v>
       </c>
       <c r="F173">
-        <v>0.0001185154266079751</v>
+        <v>0.0001375279847028239</v>
       </c>
       <c r="G173">
-        <v>0.0003353598301158156</v>
+        <v>0.0003492947069472664</v>
       </c>
       <c r="H173">
-        <v>0.0001253791391697486</v>
-      </c>
-      <c r="I173">
-        <v>0.0001283901898876929</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.0001400183812088632</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.000281762288845154</v>
+        <v>0.0003354199864017573</v>
       </c>
       <c r="C174">
-        <v>0.0003253198147705665</v>
+        <v>0.0003968382961578641</v>
       </c>
       <c r="D174">
-        <v>0.0003216281308915569</v>
+        <v>0.0003043433259100079</v>
       </c>
       <c r="E174">
-        <v>0.0002761651105682689</v>
+        <v>0.0002744397205530827</v>
       </c>
       <c r="F174">
-        <v>0.0004137467516650024</v>
+        <v>0.0003971900967287538</v>
       </c>
       <c r="G174">
-        <v>0.000344198536893388</v>
+        <v>0.0003164808957493319</v>
       </c>
       <c r="H174">
-        <v>0.000272576077129149</v>
-      </c>
-      <c r="I174">
-        <v>0.000366327019520411</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.0003060266958789594</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.0002272093098718958</v>
+        <v>0.0002616700001218014</v>
       </c>
       <c r="C175">
-        <v>0.0002692791725694792</v>
+        <v>0.0003172959479401108</v>
       </c>
       <c r="D175">
-        <v>0.0002413826120451307</v>
+        <v>0.0002285388950682484</v>
       </c>
       <c r="E175">
-        <v>0.0002627043936082581</v>
+        <v>0.0002463341375504429</v>
       </c>
       <c r="F175">
-        <v>0.000323240455460135</v>
+        <v>0.0003116118601784091</v>
       </c>
       <c r="G175">
-        <v>0.0003279239239404027</v>
+        <v>0.0003006770537493848</v>
       </c>
       <c r="H175">
-        <v>0.0002379427424249302</v>
-      </c>
-      <c r="I175">
-        <v>0.0003401404592587094</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.0002661589733688856</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.0002583759912047493</v>
+        <v>0.0003197116952358451</v>
       </c>
       <c r="C176">
-        <v>0.0003192222815147842</v>
+        <v>0.0003932973693382254</v>
       </c>
       <c r="D176">
-        <v>0.0003502624128054798</v>
+        <v>0.0003393268039059372</v>
       </c>
       <c r="E176">
-        <v>0.0003335493450625079</v>
+        <v>0.0003237542087720091</v>
       </c>
       <c r="F176">
-        <v>0.0003397595664693491</v>
+        <v>0.0003339681449297576</v>
       </c>
       <c r="G176">
-        <v>0.0003096024137957034</v>
+        <v>0.0003126483359392886</v>
       </c>
       <c r="H176">
-        <v>0.0003074771176454942</v>
-      </c>
-      <c r="I176">
-        <v>0.0002896561520529736</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.0003822582392501899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.0001151052851648172</v>
+        <v>0.0001360495704855781</v>
       </c>
       <c r="C177">
-        <v>0.0001473578745919022</v>
+        <v>0.0001712219312444837</v>
       </c>
       <c r="D177">
-        <v>9.626829288793046E-05</v>
+        <v>0.0001164110940100974</v>
       </c>
       <c r="E177">
-        <v>9.412140951236255E-05</v>
+        <v>0.0001082206288436293</v>
       </c>
       <c r="F177">
-        <v>0.0001118670080918778</v>
+        <v>0.0001184281400511256</v>
       </c>
       <c r="G177">
-        <v>0.0003289648206142549</v>
+        <v>0.00033994513183371</v>
       </c>
       <c r="H177">
-        <v>0.0001130937345833085</v>
-      </c>
-      <c r="I177">
-        <v>0.0001126501417856967</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.0001247065998848927</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.0001426760192279612</v>
+        <v>0.0001667000302342931</v>
       </c>
       <c r="C178">
-        <v>0.0001168270026117456</v>
+        <v>0.0001288672931178732</v>
       </c>
       <c r="D178">
-        <v>0.0001279168923408143</v>
+        <v>0.0001421852089847016</v>
       </c>
       <c r="E178">
-        <v>0.0001183739114843641</v>
+        <v>0.0001300685387406403</v>
       </c>
       <c r="F178">
-        <v>9.284783663139047E-05</v>
+        <v>0.0001033772263627663</v>
       </c>
       <c r="G178">
-        <v>0.0004448960598737318</v>
+        <v>0.0004862453660571411</v>
       </c>
       <c r="H178">
-        <v>0.0001119139693990821</v>
-      </c>
-      <c r="I178">
-        <v>0.0001215147531117207</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.000131881396955531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0006590182419902416</v>
+        <v>0.0008149672162830634</v>
       </c>
       <c r="C179">
-        <v>0.0006979222344168491</v>
+        <v>0.0008594925432640097</v>
       </c>
       <c r="D179">
-        <v>0.001442256432163639</v>
+        <v>0.001474772911024269</v>
       </c>
       <c r="E179">
-        <v>0.001508979102244914</v>
+        <v>0.001544486403508661</v>
       </c>
       <c r="F179">
-        <v>0.0006105397060317943</v>
+        <v>0.0007080643485797581</v>
       </c>
       <c r="G179">
-        <v>0.0005933548787590373</v>
+        <v>0.0006793090696114717</v>
       </c>
       <c r="H179">
-        <v>0.0006223172914491907</v>
-      </c>
-      <c r="I179">
-        <v>0.0006590538925221918</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.0007466728545015234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0003253851525208329</v>
+        <v>0.0003926868255449591</v>
       </c>
       <c r="C180">
-        <v>0.0004748256252539415</v>
+        <v>0.0005745277926892368</v>
       </c>
       <c r="D180">
-        <v>0.0003194801262798414</v>
+        <v>0.0003720720188170704</v>
       </c>
       <c r="E180">
-        <v>0.0003373551655755748</v>
+        <v>0.0003885387746385211</v>
       </c>
       <c r="F180">
-        <v>0.001620920525453396</v>
+        <v>0.001711170715968897</v>
       </c>
       <c r="G180">
-        <v>0.0004245457849321567</v>
+        <v>0.0004636909605228653</v>
       </c>
       <c r="H180">
-        <v>0.0003435320695248279</v>
-      </c>
-      <c r="I180">
-        <v>0.0003851407148569069</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.0004130754891313878</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0003104562549663987</v>
+        <v>0.0003834804499032523</v>
       </c>
       <c r="C181">
-        <v>0.0003037734755607183</v>
+        <v>0.0003777335298136775</v>
       </c>
       <c r="D181">
-        <v>0.0003360662239470255</v>
+        <v>0.0004022632788909093</v>
       </c>
       <c r="E181">
-        <v>0.0003434486147200044</v>
+        <v>0.0004199122635548405</v>
       </c>
       <c r="F181">
-        <v>0.001846623413368141</v>
+        <v>0.001977694941073892</v>
       </c>
       <c r="G181">
-        <v>0.0003467756345600929</v>
+        <v>0.0004005255594183067</v>
       </c>
       <c r="H181">
-        <v>0.0003085118282817896</v>
-      </c>
-      <c r="I181">
-        <v>0.0003102437836633567</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.0003847140398920369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0004683910096870163</v>
+        <v>0.0005242783856892937</v>
       </c>
       <c r="C182">
-        <v>0.0002767772612833526</v>
+        <v>0.0003451409051072043</v>
       </c>
       <c r="D182">
-        <v>0.0002634648065598241</v>
+        <v>0.0003194954999993311</v>
       </c>
       <c r="E182">
-        <v>0.0003225111855063242</v>
+        <v>0.0003828066813773617</v>
       </c>
       <c r="F182">
-        <v>0.001278504294521563</v>
+        <v>0.001357946939008456</v>
       </c>
       <c r="G182">
-        <v>0.0002748340173182641</v>
+        <v>0.0003317689847391705</v>
       </c>
       <c r="H182">
-        <v>0.0002877596332279743</v>
-      </c>
-      <c r="I182">
-        <v>0.0002783413718456338</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.0003472702490255425</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0002914759808849097</v>
+        <v>0.0003574556056939457</v>
       </c>
       <c r="C183">
-        <v>0.0003113561021914857</v>
+        <v>0.0003822692501889297</v>
       </c>
       <c r="D183">
-        <v>0.0002990367990549878</v>
+        <v>0.0003606327349897164</v>
       </c>
       <c r="E183">
-        <v>0.000329637733335706</v>
+        <v>0.0003939383134115082</v>
       </c>
       <c r="F183">
-        <v>0.001829539634047605</v>
+        <v>0.001950815559061433</v>
       </c>
       <c r="G183">
-        <v>0.0003138888192374708</v>
+        <v>0.0003599632864908057</v>
       </c>
       <c r="H183">
-        <v>0.0003264593762759145</v>
-      </c>
-      <c r="I183">
-        <v>0.0003245948259544446</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.000405809651475056</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.000419482443055653</v>
+        <v>0.0004783213818211265</v>
       </c>
       <c r="C184">
-        <v>0.0003319175227089871</v>
+        <v>0.0004096342741290137</v>
       </c>
       <c r="D184">
-        <v>0.0003587358965135945</v>
+        <v>0.000427202848086986</v>
       </c>
       <c r="E184">
-        <v>0.0004274833712446135</v>
+        <v>0.0004974261538086865</v>
       </c>
       <c r="F184">
-        <v>0.001412092172937904</v>
+        <v>0.001498376835512298</v>
       </c>
       <c r="G184">
-        <v>0.0003907418693705252</v>
+        <v>0.0004508938722914598</v>
       </c>
       <c r="H184">
-        <v>0.0003376556475519708</v>
-      </c>
-      <c r="I184">
-        <v>0.0003331619438616334</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.0004093086639199654</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>4.020568420403897E-05</v>
+        <v>4.089534664067139E-05</v>
       </c>
       <c r="C185">
-        <v>6.495637022668269E-05</v>
+        <v>6.424769461639814E-05</v>
       </c>
       <c r="D185">
-        <v>6.871371154787286E-05</v>
+        <v>8.350790586883686E-05</v>
       </c>
       <c r="E185">
-        <v>4.509649672112322E-05</v>
+        <v>4.359633532762621E-05</v>
       </c>
       <c r="F185">
-        <v>3.394775549571665E-05</v>
+        <v>3.449099664887171E-05</v>
       </c>
       <c r="G185">
-        <v>0.0001182800271455042</v>
+        <v>0.0001200941354650453</v>
       </c>
       <c r="H185">
-        <v>0.000118895305151369</v>
-      </c>
-      <c r="I185">
-        <v>6.880204516115794E-05</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.0001385235307572675</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.000694666558503957</v>
+        <v>0.0008564334591112448</v>
       </c>
       <c r="C186">
-        <v>0.0006767583802632434</v>
+        <v>0.00084200199861027</v>
       </c>
       <c r="D186">
-        <v>0.001455409270998976</v>
+        <v>0.001489250888696977</v>
       </c>
       <c r="E186">
-        <v>0.001574028788783242</v>
+        <v>0.001611811905403707</v>
       </c>
       <c r="F186">
-        <v>0.0009016884739094735</v>
+        <v>0.0009818584004608979</v>
       </c>
       <c r="G186">
-        <v>0.0006164201705347261</v>
+        <v>0.0007626143557947018</v>
       </c>
       <c r="H186">
-        <v>0.0007211103868220471</v>
-      </c>
-      <c r="I186">
-        <v>0.0006783142085717537</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.0008903793092496916</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0009325683281712543</v>
+        <v>0.00116274056468345</v>
       </c>
       <c r="C187">
-        <v>0.0008599802434989237</v>
+        <v>0.001055377460730679</v>
       </c>
       <c r="D187">
-        <v>0.001304093923779448</v>
+        <v>0.001318547122449234</v>
       </c>
       <c r="E187">
-        <v>0.001414693613673462</v>
+        <v>0.001411107831470894</v>
       </c>
       <c r="F187">
-        <v>0.001655117996064912</v>
+        <v>0.00167247661168111</v>
       </c>
       <c r="G187">
-        <v>0.0008017974481992506</v>
+        <v>0.0009473270250472769</v>
       </c>
       <c r="H187">
-        <v>0.0009223101597141425</v>
-      </c>
-      <c r="I187">
-        <v>0.0009059560018246964</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.001142256731718509</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.002635901101557727</v>
+        <v>0.003042124489478288</v>
       </c>
       <c r="C188">
-        <v>0.002331363414411989</v>
+        <v>0.002786200324216175</v>
       </c>
       <c r="D188">
-        <v>0.004361930512952311</v>
+        <v>0.004601082538191377</v>
       </c>
       <c r="E188">
-        <v>0.002827879818883421</v>
+        <v>0.003194872066755085</v>
       </c>
       <c r="F188">
-        <v>0.005425976662084696</v>
+        <v>0.005742033999404417</v>
       </c>
       <c r="G188">
-        <v>0.002372713352679092</v>
+        <v>0.002955308978232564</v>
       </c>
       <c r="H188">
-        <v>0.00262966482624785</v>
-      </c>
-      <c r="I188">
-        <v>0.002231312366103118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.003060046588424029</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.002628145822412829</v>
+        <v>0.003022301027451688</v>
       </c>
       <c r="C189">
-        <v>0.001968196978799361</v>
+        <v>0.002386678412518416</v>
       </c>
       <c r="D189">
-        <v>0.003731702443844718</v>
+        <v>0.003889043660615195</v>
       </c>
       <c r="E189">
-        <v>0.00219478586221572</v>
+        <v>0.002453521976699802</v>
       </c>
       <c r="F189">
-        <v>0.004214356987227641</v>
+        <v>0.004397087990433903</v>
       </c>
       <c r="G189">
-        <v>0.001966810852213233</v>
+        <v>0.002430585963366949</v>
       </c>
       <c r="H189">
-        <v>0.002375009986237013</v>
-      </c>
-      <c r="I189">
-        <v>0.001948342013795485</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.002782794122214733</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0004714620880478624</v>
+        <v>0.0005430629132638019</v>
       </c>
       <c r="C190">
-        <v>0.0002486422348250877</v>
+        <v>0.0002842886603506384</v>
       </c>
       <c r="D190">
-        <v>0.0002378154447153295</v>
+        <v>0.0002795012143488657</v>
       </c>
       <c r="E190">
-        <v>0.0002602709832395829</v>
+        <v>0.0002866236888299528</v>
       </c>
       <c r="F190">
-        <v>0.0006426757077603612</v>
+        <v>0.0006693510274542939</v>
       </c>
       <c r="G190">
-        <v>0.0003737975225732868</v>
+        <v>0.0003885795382520791</v>
       </c>
       <c r="H190">
-        <v>0.0002815390939219737</v>
-      </c>
-      <c r="I190">
-        <v>0.0002739432184070564</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.0003447016368582221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0003457899008688601</v>
+        <v>0.000392522272842531</v>
       </c>
       <c r="C191">
-        <v>0.0003312235469571206</v>
+        <v>0.0003812494507725122</v>
       </c>
       <c r="D191">
-        <v>0.0008067108091356764</v>
+        <v>0.0008242294064979808</v>
       </c>
       <c r="E191">
-        <v>0.000643156908610648</v>
+        <v>0.0006599796474165279</v>
       </c>
       <c r="F191">
-        <v>0.0003922832910228561</v>
+        <v>0.0004148972235922294</v>
       </c>
       <c r="G191">
-        <v>0.0006321633917513448</v>
+        <v>0.0007352907730818266</v>
       </c>
       <c r="H191">
-        <v>0.0003748444911758145</v>
-      </c>
-      <c r="I191">
-        <v>0.0004245896748011576</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.0004595189598837482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.000438361813548033</v>
+        <v>0.0005097218128704174</v>
       </c>
       <c r="C192">
-        <v>0.0004621988109447147</v>
+        <v>0.0005192337743656973</v>
       </c>
       <c r="D192">
-        <v>0.0008558201658043332</v>
+        <v>0.0008867581959648099</v>
       </c>
       <c r="E192">
-        <v>0.0009735917739289124</v>
+        <v>0.001013879300868221</v>
       </c>
       <c r="F192">
-        <v>0.0005902469740180443</v>
+        <v>0.0006974025461999824</v>
       </c>
       <c r="G192">
-        <v>0.0005676043947938363</v>
+        <v>0.0006600495067152478</v>
       </c>
       <c r="H192">
-        <v>0.0004154299662710136</v>
-      </c>
-      <c r="I192">
-        <v>0.000451688975230448</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.0005158735406113821</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0002781407607548367</v>
+        <v>0.0002887811542715324</v>
       </c>
       <c r="C193">
-        <v>0.0003509343209369269</v>
+        <v>0.0004203000991244728</v>
       </c>
       <c r="D193">
-        <v>0.0004706225655175201</v>
+        <v>0.0004811051752651404</v>
       </c>
       <c r="E193">
-        <v>0.0003932005900191553</v>
+        <v>0.0003959852019825684</v>
       </c>
       <c r="F193">
-        <v>0.0002748679915684833</v>
+        <v>0.0002873343246501315</v>
       </c>
       <c r="G193">
-        <v>0.0004519786807677879</v>
+        <v>0.0005217415101063819</v>
       </c>
       <c r="H193">
-        <v>0.0002858098870126625</v>
-      </c>
-      <c r="I193">
-        <v>0.0003069202460238625</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.0003464602788726501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0005181654011210739</v>
+        <v>0.0006239281771613894</v>
       </c>
       <c r="C194">
-        <v>0.001153650848105581</v>
+        <v>0.001267123358550407</v>
       </c>
       <c r="D194">
-        <v>0.0006614014429384701</v>
+        <v>0.0007597415677424342</v>
       </c>
       <c r="E194">
-        <v>0.0005650966811771609</v>
+        <v>0.0006538786527250509</v>
       </c>
       <c r="F194">
-        <v>0.001130726904396017</v>
+        <v>0.001230308722835904</v>
       </c>
       <c r="G194">
-        <v>0.0006378236101834</v>
+        <v>0.0007150747263965063</v>
       </c>
       <c r="H194">
-        <v>0.0005225035687007077</v>
-      </c>
-      <c r="I194">
-        <v>0.0004828040822420972</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.000619051282133398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.001866724642616211</v>
+        <v>0.001923205512726846</v>
       </c>
       <c r="C195">
-        <v>0.001699138406814114</v>
+        <v>0.001834907811614412</v>
       </c>
       <c r="D195">
-        <v>0.002345710141711513</v>
+        <v>0.002835127624295467</v>
       </c>
       <c r="E195">
-        <v>0.003385405959631106</v>
+        <v>0.003925768901541792</v>
       </c>
       <c r="F195">
-        <v>0.002179160638023358</v>
+        <v>0.002609073894051617</v>
       </c>
       <c r="G195">
-        <v>0.001978391113693642</v>
+        <v>0.00208348219033292</v>
       </c>
       <c r="H195">
-        <v>0.00193748007536326</v>
-      </c>
-      <c r="I195">
-        <v>0.001582494127369982</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.002008959505523243</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0003067208147217279</v>
+        <v>0.0003484443282425196</v>
       </c>
       <c r="C196">
-        <v>0.0003139611662118446</v>
+        <v>0.0003739527801355957</v>
       </c>
       <c r="D196">
-        <v>0.0004379474718014338</v>
+        <v>0.0004296157431938671</v>
       </c>
       <c r="E196">
-        <v>0.0004991852936488184</v>
+        <v>0.0004922069217690161</v>
       </c>
       <c r="F196">
-        <v>0.0004485921324260355</v>
+        <v>0.0004408985123924553</v>
       </c>
       <c r="G196">
-        <v>0.0004156384574160064</v>
+        <v>0.000502036350139563</v>
       </c>
       <c r="H196">
-        <v>0.0003232421730101572</v>
-      </c>
-      <c r="I196">
-        <v>0.0003514421316614029</v>
+        <v>0.0003979818077593178</v>
       </c>
     </row>
   </sheetData>
